--- a/irena_elecgen_summary.xlsx
+++ b/irena_elecgen_summary.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Mixed Hydro Plants" sheetId="1" r:id="rId1"/>
-    <sheet name="Offshore wind energy" sheetId="2" r:id="rId2"/>
-    <sheet name="Onshore wind energy" sheetId="3" r:id="rId3"/>
-    <sheet name="Pumped storage" sheetId="4" r:id="rId4"/>
-    <sheet name="Concentrated solar power" sheetId="5" r:id="rId5"/>
-    <sheet name="Renewable hydropower" sheetId="6" r:id="rId6"/>
+    <sheet name="Solar photovoltaic" sheetId="1" r:id="rId1"/>
+    <sheet name="Pumped storage" sheetId="2" r:id="rId2"/>
+    <sheet name="Renewable hydropower" sheetId="3" r:id="rId3"/>
+    <sheet name="Onshore wind energy" sheetId="4" r:id="rId4"/>
+    <sheet name="Mixed Hydro Plants" sheetId="5" r:id="rId5"/>
+    <sheet name="Concentrated solar power" sheetId="6" r:id="rId6"/>
     <sheet name="Nuclear" sheetId="7" r:id="rId7"/>
-    <sheet name="Solar photovoltaic" sheetId="8" r:id="rId8"/>
+    <sheet name="Offshore wind energy" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -504,7 +504,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>17.789</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -515,7 +515,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>67.795</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -526,7 +526,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>848.285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -537,7 +537,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>764.9949999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -559,7 +559,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -570,7 +570,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>558.66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -581,7 +581,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2496.3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -592,7 +592,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1190.7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -625,7 +625,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>14.865</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -636,7 +636,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1368.409</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -647,7 +647,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>59.19400000000019</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -691,7 +691,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>57.14400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -702,7 +702,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>25.83599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -713,7 +713,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -724,7 +724,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -735,7 +735,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>615.288</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -746,7 +746,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1648.144</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -757,7 +757,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>47.72800000000007</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -768,7 +768,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -779,7 +779,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -790,7 +790,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4.027</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -801,7 +801,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>598.2349999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -812,7 +812,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>359.0070000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -856,7 +856,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5.856000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -867,7 +867,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>67.55199999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -878,7 +878,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1.576</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -889,7 +889,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -900,7 +900,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2.108</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -911,7 +911,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>6.572</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -922,7 +922,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>135.939</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5.223</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -944,7 +944,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>5.278</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -955,7 +955,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>609.499</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -966,7 +966,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>7133.737</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -977,7 +977,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>4471.447000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -988,7 +988,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -999,7 +999,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>26997</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>156.795</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>3741.888</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>528.8740000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>140.15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>2.932</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>17.942</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1874.661</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>21036.531</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>746.7080000000024</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2.902</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>72.90900000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>18.09999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>17.698</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>3.449999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>82.57300000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>26.66399999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>7.684</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>27.742</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>20.446</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1052.647</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>4226.936</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.8900000000000006</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1.869</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>5.250999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>654.034</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>208.33</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>584.8249999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>546.097</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1981.964</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>-204.385</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>16.942</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>489.058</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>12.826</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>261.371</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>28.80699999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>33.979</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>6377.021</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1841.217000000001</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1153.782999999999</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1.418</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>0.7089999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>6.473</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +2002,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1382.701</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2013,7 +2013,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>960.1410000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>852.163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2035,7 +2035,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>239.6669999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2046,7 +2046,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-56.62199999999984</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2057,7 +2057,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2068,7 +2068,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2079,7 +2079,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>190</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2423</v>
+        <v>-256.9000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>2032</v>
+        <v>-219.8999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2112,7 +2112,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>112.468</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2134,7 +2134,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>228.7069999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2145,7 +2145,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-169.419</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2156,7 +2156,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-38.50999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2167,7 +2167,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2178,7 +2178,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2189,7 +2189,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.099999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>58.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2211,7 +2211,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-58.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2222,7 +2222,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>92.09199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-55.98699999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2255,7 +2255,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>684.857</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2266,7 +2266,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-109.3050000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2277,7 +2277,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>88.72799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2288,7 +2288,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>803.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2299,7 +2299,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>890.3149999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2310,7 +2310,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>3049.788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2321,7 +2321,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>1364.883000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2409,7 +2409,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2420,7 +2420,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2431,7 +2431,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>69.71899999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2442,7 +2442,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2453,7 +2453,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2464,7 +2464,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2475,7 +2475,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>145.0910000000003</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-298.3240000000005</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2497,7 +2497,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2508,7 +2508,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>928</v>
+        <v>-379</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2530,7 +2530,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>8774</v>
+        <v>-479</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2541,7 +2541,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>15042</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2574,7 +2574,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>23.479</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2585,7 +2585,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>28.647</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2596,7 +2596,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>21.154</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2673,7 +2673,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>80</v>
+        <v>39.91000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2684,7 +2684,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-167.048</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2695,7 +2695,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>111.246</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2706,7 +2706,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>-42.78900000000002</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2717,7 +2717,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>6700.189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2728,7 +2728,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>159.9780000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>-3570.268</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2750,7 +2750,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-1857.755</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2761,7 +2761,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>402.8389999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2827,7 +2827,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2849,7 +2849,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>-72.70000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>747.126</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2893,7 +2893,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>37.36000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2904,7 +2904,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>575.842</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2915,7 +2915,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>71.04199999999992</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2926,7 +2926,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>-588.9939999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2959,7 +2959,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2970,7 +2970,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>2500.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2992,7 +2992,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3003,7 +3003,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3014,7 +3014,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>-351</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3025,7 +3025,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3036,7 +3036,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-2</v>
+        <v>-264</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3047,7 +3047,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3058,7 +3058,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>-433.23</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3069,7 +3069,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-1008.573</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3080,7 +3080,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>34.79700000000003</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>103.472</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3102,7 +3102,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3113,7 +3113,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3124,7 +3124,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3135,7 +3135,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>4.7</v>
+        <v>740</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3146,7 +3146,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>-4.7</v>
+        <v>285.8009999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3179,7 +3179,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>360.098</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3190,7 +3190,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>14.37799999999999</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>50.60300000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3212,7 +3212,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3223,7 +3223,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>-257</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3234,7 +3234,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3245,7 +3245,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3256,7 +3256,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3289,7 +3289,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>184.718</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>98.35300000000004</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3311,7 +3311,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>-79.92800000000003</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3322,7 +3322,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3333,7 +3333,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3344,7 +3344,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>-1425</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3355,7 +3355,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3366,7 +3366,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>27.156</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3388,7 +3388,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>36.906</v>
+        <v>36.129</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3399,7 +3399,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>355.882</v>
+        <v>31.871</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>294.348</v>
+        <v>24.265</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3421,7 +3421,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-44.29100000000005</v>
+        <v>-105.265</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3432,7 +3432,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3443,7 +3443,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3454,7 +3454,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3465,7 +3465,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -3511,7 +3511,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>66.754</v>
+        <v>41835.651</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>1264.523</v>
+        <v>-4740.512999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>732.6370000000002</v>
+        <v>1268.279999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>2776.407</v>
+        <v>-1206.551999999996</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>2637.042</v>
+        <v>3298.479999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>211</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>875</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>1859</v>
+        <v>6.399999999999977</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>2119.6</v>
+        <v>-16.39999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>4.587</v>
+        <v>1666.428</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>676.782</v>
+        <v>733.9130000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>770.1419999999999</v>
+        <v>623.4449999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-134.5229999999999</v>
+        <v>-2725.287</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6452.9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>583.6000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>129.1</v>
+        <v>2089.703</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>657.1949999999999</v>
+        <v>-2735.566999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>671.005</v>
+        <v>-564.5360000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.885</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>20.395</v>
+        <v>621.9099999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>314.213</v>
+        <v>409.5640000000003</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>237.119</v>
+        <v>-994.6670000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>127.402</v>
+        <v>213.222</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>4152.272</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>1569.145</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>305.107</v>
+        <v>-2.358000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>3273.882000000001</v>
+        <v>-2.611999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>651.8579999999984</v>
+        <v>-0.8130000000000024</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>222.992</v>
+        <v>4.881</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>438.008</v>
+        <v>-0.2809999999999988</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>-28</v>
+        <v>-7.600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>78</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>91.94200000000001</v>
+        <v>-876</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>85.375</v>
+        <v>-862.0059999999994</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>1998.042</v>
+        <v>3846.704</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>3627.668</v>
+        <v>-4355.991</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>48.16</v>
+        <v>66363.249</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>914.4100000000001</v>
+        <v>-14883.372</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>8982.42</v>
+        <v>11233.74</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>11475.612</v>
+        <v>-7157.345000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>13301.082</v>
+        <v>1357.619000000006</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>9352</v>
+        <v>21732</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>18422</v>
+        <v>-2094</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>9845</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>33303</v>
+        <v>-1977</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>30228</v>
+        <v>755</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>451</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>815.452</v>
+        <v>1499.497</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>1447.485</v>
+        <v>1864.255999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>1907.082</v>
+        <v>-1376.558999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>2645.328</v>
+        <v>-2120.579000000001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>10.095</v>
+        <v>24.15299999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>523.697</v>
+        <v>-13.76900000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>159.5309999999999</v>
+        <v>45.32700000000003</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>35.67700000000002</v>
+        <v>-14.71100000000001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>244</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>787.9100000000001</v>
+        <v>-215.74</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>1702.749</v>
+        <v>-32.029</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>3757.338999999999</v>
+        <v>207.259</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>3446.487000000001</v>
+        <v>80.09399999999994</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>563</v>
+        <v>44199.446</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1780.399</v>
+        <v>-8132.713000000003</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>6782.519</v>
+        <v>15050.031</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>5717.964</v>
+        <v>-5579.440000000002</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>5358.160000000002</v>
+        <v>781.2090000000026</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>4.417</v>
+        <v>2819.157</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>42.437</v>
+        <v>506.1320000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>2.203000000000003</v>
+        <v>195.2169999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>98.07799999999999</v>
+        <v>-1660.151</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>6.864000000000004</v>
+        <v>247.1990000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>222</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>586</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>689.4000000000001</v>
+        <v>-3.600000000000023</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>24.743</v>
+        <v>123.504</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>27.508</v>
+        <v>-30.56500000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>2.832000000000001</v>
+        <v>14.72200000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>46.765</v>
+        <v>-8.408000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4435,7 +4435,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>179.435</v>
+        <v>7.662000000000006</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4446,7 +4446,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>829.03</v>
+        <v>142.43</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4457,7 +4457,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>1237.625</v>
+        <v>-54.43000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>1247.482</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4479,7 +4479,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>3105.737</v>
+        <v>-12.301</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4490,7 +4490,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>1458.052000000001</v>
+        <v>-18.517</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4501,7 +4501,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>31</v>
+        <v>141818</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4512,7 +4512,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>468</v>
+        <v>-6130</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4523,7 +4523,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>375</v>
+        <v>-18949</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4534,7 +4534,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>1634</v>
+        <v>20563</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4545,7 +4545,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>3023.25</v>
+        <v>-11781.933</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4556,7 +4556,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4567,7 +4567,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>130.47</v>
+        <v>95.11499999999978</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4578,7 +4578,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>1528.869</v>
+        <v>718.8270000000002</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4589,7 +4589,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>9194.026</v>
+        <v>-1087.74</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4600,7 +4600,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>4248.394</v>
+        <v>126.2139999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4611,7 +4611,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>168</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4622,7 +4622,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>1605.263</v>
+        <v>-6592.337</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4633,7 +4633,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>7408.309</v>
+        <v>11417.234</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4644,7 +4644,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>2421.366</v>
+        <v>-7487.391000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4655,7 +4655,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>2064.011</v>
+        <v>157.2080000000005</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4666,7 +4666,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>14778</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4677,7 +4677,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0.227</v>
+        <v>5428.852999999999</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>306.121</v>
+        <v>-323.969000000001</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4699,7 +4699,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>6756.582</v>
+        <v>-3250.806999999997</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4710,7 +4710,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-290.1210000000001</v>
+        <v>-1051.455000000002</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4721,7 +4721,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4732,7 +4732,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4743,7 +4743,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4754,7 +4754,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-1389</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4765,7 +4765,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4776,7 +4776,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>3834.721</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4787,7 +4787,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>-373.7559999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4798,7 +4798,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1057.272</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4809,7 +4809,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>6.028</v>
+        <v>-711.1330000000003</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4820,7 +4820,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0.1220000000000008</v>
+        <v>672.2919999999999</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4831,7 +4831,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>4727</v>
+        <v>28256</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4842,7 +4842,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>16449</v>
+        <v>-9863</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4853,7 +4853,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>23095</v>
+        <v>23911</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4864,7 +4864,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>5043</v>
+        <v>-14164</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4875,7 +4875,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>6322</v>
+        <v>-3494</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4886,7 +4886,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>429.844</v>
+        <v>78584</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>441.094</v>
+        <v>-5781</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4908,7 +4908,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>2196.118</v>
+        <v>-6405.212</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4919,7 +4919,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>12540.652</v>
+        <v>8914.694000000003</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4930,7 +4930,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>3569.290999999999</v>
+        <v>-9941.482000000004</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4941,7 +4941,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>36835</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4952,7 +4952,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>-5609</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4963,7 +4963,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>29</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4974,7 +4974,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>73</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4985,7 +4985,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>36</v>
+        <v>-218</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5020,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>1382.701</v>
+        <v>66.754</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>960.1410000000001</v>
+        <v>1264.523</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>852.163</v>
+        <v>732.6370000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>239.6669999999999</v>
+        <v>2776.407</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>-56.62199999999984</v>
+        <v>2637.042</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>1239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>-256.9000000000001</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>-219.8999999999999</v>
+        <v>2119.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>112.468</v>
+        <v>4.587</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>228.7069999999999</v>
+        <v>676.782</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>-169.419</v>
+        <v>770.1419999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-38.50999999999999</v>
+        <v>-134.5229999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>18.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>85.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>2.099999999999994</v>
+        <v>129.1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>58.90000000000001</v>
+        <v>657.1949999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>-58.5</v>
+        <v>671.005</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>555</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>92.09199999999998</v>
+        <v>20.395</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>-55.98699999999997</v>
+        <v>314.213</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>684.857</v>
+        <v>237.119</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>-109.3050000000001</v>
+        <v>127.402</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>4152.272</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1569.145</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>305.107</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5328,7 +5328,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3273.882000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5339,7 +5339,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>651.8579999999984</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5361,7 +5361,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5372,7 +5372,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>222.992</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5383,7 +5383,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>438.008</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5394,7 +5394,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5405,7 +5405,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5416,7 +5416,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>91.94200000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5427,7 +5427,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>85.375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5438,7 +5438,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1998.042</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5449,7 +5449,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3627.668</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5460,7 +5460,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>4770</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5471,7 +5471,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>82</v>
+        <v>914.4100000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5482,7 +5482,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>-40</v>
+        <v>8982.42</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5493,7 +5493,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>145.0910000000003</v>
+        <v>11475.612</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5504,7 +5504,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>-298.3240000000005</v>
+        <v>13301.082</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5515,7 +5515,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4230</v>
+        <v>9352</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5526,7 +5526,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>2549</v>
+        <v>18422</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5537,7 +5537,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>-379</v>
+        <v>9845</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5548,7 +5548,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-479</v>
+        <v>33303</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5559,7 +5559,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>30228</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5570,7 +5570,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5581,7 +5581,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>815.452</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5592,7 +5592,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>23.479</v>
+        <v>1447.485</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5603,7 +5603,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>28.647</v>
+        <v>1907.082</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5614,7 +5614,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>21.154</v>
+        <v>2645.328</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>10.095</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5647,7 +5647,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>523.697</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5658,7 +5658,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>159.5309999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5669,7 +5669,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>35.67700000000002</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5680,7 +5680,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>304</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5691,7 +5691,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>39.91000000000003</v>
+        <v>787.9100000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5702,7 +5702,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>-167.048</v>
+        <v>1702.749</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5713,7 +5713,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>111.246</v>
+        <v>3757.338999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5724,7 +5724,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>-42.78900000000002</v>
+        <v>3446.487000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5735,7 +5735,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>6700.189</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>159.9780000000001</v>
+        <v>1780.399</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5757,7 +5757,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>-3570.268</v>
+        <v>6782.519</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5768,7 +5768,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>-1857.755</v>
+        <v>5717.964</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5779,7 +5779,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>402.8389999999999</v>
+        <v>5358.160000000002</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5790,7 +5790,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>4.417</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5801,7 +5801,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>42.437</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5812,7 +5812,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2.203000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5823,7 +5823,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>98.07799999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5834,7 +5834,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>6.864000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5845,7 +5845,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5867,7 +5867,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>386</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5878,7 +5878,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>-80</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5889,7 +5889,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>-72.70000000000005</v>
+        <v>689.4000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5900,7 +5900,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>747.126</v>
+        <v>24.743</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5911,7 +5911,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>37.36000000000001</v>
+        <v>27.508</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5922,7 +5922,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>575.842</v>
+        <v>2.832000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5933,7 +5933,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>71.04199999999992</v>
+        <v>46.765</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5944,7 +5944,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>-588.9939999999999</v>
+        <v>179.435</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5955,7 +5955,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>829.03</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1237.625</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5977,7 +5977,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1247.482</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5988,7 +5988,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>3105.737</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5999,7 +5999,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1458.052000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6010,7 +6010,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>471</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6021,7 +6021,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>293</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6032,7 +6032,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>-351</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6043,7 +6043,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>735</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6054,7 +6054,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-264</v>
+        <v>3023.25</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>2010</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6076,7 +6076,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>-433.23</v>
+        <v>130.47</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6087,7 +6087,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>-1008.573</v>
+        <v>1528.869</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6098,7 +6098,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>34.79700000000003</v>
+        <v>9194.026</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6109,7 +6109,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>103.472</v>
+        <v>4248.394</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6120,7 +6120,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>392</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6131,7 +6131,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>-5</v>
+        <v>1605.263</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6142,7 +6142,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>7408.309</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6153,7 +6153,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>740</v>
+        <v>2421.366</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6164,7 +6164,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>285.8009999999999</v>
+        <v>2064.011</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6186,7 +6186,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -6197,7 +6197,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>360.098</v>
+        <v>306.121</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6208,7 +6208,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>14.37799999999999</v>
+        <v>6756.582</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6219,7 +6219,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>50.60300000000001</v>
+        <v>-290.1210000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6230,7 +6230,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -6241,7 +6241,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>-257</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6252,7 +6252,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -6263,7 +6263,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>-123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -6274,7 +6274,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>-56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6307,7 +6307,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>184.718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -6318,7 +6318,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>98.35300000000004</v>
+        <v>6.028</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -6329,7 +6329,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>-79.92800000000003</v>
+        <v>0.1220000000000008</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6340,7 +6340,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>3551</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6351,7 +6351,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>1081</v>
+        <v>16449</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6362,7 +6362,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>-1425</v>
+        <v>23095</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6373,7 +6373,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>21</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6384,7 +6384,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>-1000</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>35</v>
+        <v>429.844</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6406,7 +6406,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>36.129</v>
+        <v>441.094</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6417,7 +6417,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>31.871</v>
+        <v>2196.118</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6428,7 +6428,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>24.265</v>
+        <v>12540.652</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6439,7 +6439,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-105.265</v>
+        <v>3569.290999999999</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6450,7 +6450,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>1395</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6461,7 +6461,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>465</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6472,7 +6472,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>-97</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6483,7 +6483,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>-140</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>1299</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7266,7 +7266,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>9.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7277,7 +7277,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7673,7 +7673,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>17.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -7871,7 +7871,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>761.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7882,7 +7882,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>4832.037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -7893,7 +7893,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>89.76299999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -8038,7 +8038,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>41835.651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8049,7 +8049,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>-4740.512999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8060,7 +8060,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>1268.279999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8071,7 +8071,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>-1206.551999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8082,7 +8082,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>3298.479999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8093,7 +8093,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8104,7 +8104,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>-172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8115,7 +8115,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8126,7 +8126,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>6.399999999999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8137,7 +8137,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>-16.39999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8148,7 +8148,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>2631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8159,7 +8159,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>1666.428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8170,7 +8170,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>733.9130000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8181,7 +8181,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>623.4449999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8192,7 +8192,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-2725.287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8203,7 +8203,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>6452.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8214,7 +8214,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>583.6000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8225,7 +8225,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>2089.703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8236,7 +8236,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>-2735.566999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8247,7 +8247,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>-564.5360000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8258,7 +8258,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>1758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8269,7 +8269,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>621.9099999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8280,7 +8280,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>409.5640000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8291,7 +8291,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>-994.6670000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8302,7 +8302,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>213.222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8313,7 +8313,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8324,7 +8324,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8335,7 +8335,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>-2.358000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8346,7 +8346,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>-2.611999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8357,7 +8357,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>-0.8130000000000024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8368,7 +8368,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -8379,7 +8379,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8390,7 +8390,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>4.881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8401,7 +8401,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>-0.2809999999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8412,7 +8412,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>-7.600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8423,7 +8423,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>14660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8434,7 +8434,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>-876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8445,7 +8445,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>-862.0059999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8456,7 +8456,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>3846.704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8467,7 +8467,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>-4355.991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8478,7 +8478,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>66363.249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8489,7 +8489,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>-14883.372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8500,7 +8500,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>11233.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8511,7 +8511,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>-7157.345000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8522,7 +8522,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>1357.619000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8533,7 +8533,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>21732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8544,7 +8544,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>-2094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8555,7 +8555,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>1315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8566,7 +8566,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-1977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8577,7 +8577,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8588,7 +8588,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>4111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8599,7 +8599,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>1499.497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8610,7 +8610,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>1864.255999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8621,7 +8621,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>-1376.558999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8632,7 +8632,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>-2120.579000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8643,7 +8643,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -8654,7 +8654,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>24.15299999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8665,7 +8665,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>-13.76900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8676,7 +8676,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>45.32700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8687,7 +8687,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>-14.71100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8698,7 +8698,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8709,7 +8709,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>-215.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8720,7 +8720,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>-32.029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8731,7 +8731,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>207.259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8742,7 +8742,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>80.09399999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8753,7 +8753,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>44199.446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8764,7 +8764,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>-8132.713000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8775,7 +8775,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>15050.031</v>
+        <v>9.475</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8786,7 +8786,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>-5579.440000000002</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8797,7 +8797,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>781.2090000000026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8808,7 +8808,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>2819.157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8819,7 +8819,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>506.1320000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8830,7 +8830,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>195.2169999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8841,7 +8841,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>-1660.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8852,7 +8852,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>247.1990000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8863,7 +8863,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8874,7 +8874,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8885,7 +8885,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8896,7 +8896,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>-191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8907,7 +8907,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>-3.600000000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8918,7 +8918,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>123.504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8929,7 +8929,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>-30.56500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8940,7 +8940,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>14.72200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8951,7 +8951,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>-8.408000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8962,7 +8962,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>7.662000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8973,7 +8973,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>142.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8984,7 +8984,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>-54.43000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8995,7 +8995,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -9006,7 +9006,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>-12.301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -9017,7 +9017,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>-18.517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -9028,7 +9028,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>141818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9039,7 +9039,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>-6130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -9050,7 +9050,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>-18949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9061,7 +9061,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>20563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9072,7 +9072,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-11781.933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -9083,7 +9083,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>2106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9094,7 +9094,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>95.11499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9105,7 +9105,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>718.8270000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9116,7 +9116,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>-1087.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9127,7 +9127,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>126.2139999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9138,7 +9138,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>11323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9149,7 +9149,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>-6592.337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9160,7 +9160,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>11417.234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -9171,7 +9171,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>-7487.391000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9182,7 +9182,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>157.2080000000005</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9193,7 +9193,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>14778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -9204,7 +9204,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>5428.852999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -9215,7 +9215,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>-323.969000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9226,7 +9226,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>-3250.806999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9237,7 +9237,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-1051.455000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -9248,7 +9248,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>4615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -9259,7 +9259,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9270,7 +9270,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -9281,7 +9281,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>-1389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -9292,7 +9292,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -9303,7 +9303,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>3834.721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -9314,7 +9314,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>-373.7559999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -9325,7 +9325,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>1057.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -9336,7 +9336,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>-711.1330000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -9347,7 +9347,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>672.2919999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -9358,7 +9358,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>28256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9369,7 +9369,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>-9863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9380,7 +9380,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>23911</v>
+        <v>761.2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9391,7 +9391,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>-14164</v>
+        <v>4832.037</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9402,7 +9402,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>-3494</v>
+        <v>89.76299999999992</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9413,7 +9413,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>78584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -9424,7 +9424,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>-5781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9435,7 +9435,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>-6405.212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9446,7 +9446,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>8914.694000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9457,7 +9457,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-9941.482000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9468,7 +9468,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>36835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9479,7 +9479,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>-5609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9490,7 +9490,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>4836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9501,7 +9501,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>2196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9512,7 +9512,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>-218</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11056,7 +11056,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>3.229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11067,7 +11067,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>17.789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11078,7 +11078,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>67.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11089,7 +11089,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>848.285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11100,7 +11100,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>764.9949999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11122,7 +11122,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11133,7 +11133,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>558.66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11144,7 +11144,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2496.3</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11155,7 +11155,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>1190.7</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11188,7 +11188,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>14.865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11199,7 +11199,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>1368.409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11210,7 +11210,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>59.19400000000019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11243,7 +11243,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11254,7 +11254,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>57.14400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11265,7 +11265,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>25.83599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11276,7 +11276,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11287,7 +11287,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0.364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11298,7 +11298,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>615.288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11309,7 +11309,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>1648.144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11320,7 +11320,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>47.72800000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11331,7 +11331,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>88.72799999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11342,7 +11342,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>803.855</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11353,7 +11353,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>4.027</v>
+        <v>890.3149999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11364,7 +11364,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>598.2349999999999</v>
+        <v>3049.788</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11375,7 +11375,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>359.0070000000001</v>
+        <v>1364.883000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11408,7 +11408,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0.092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -11419,7 +11419,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>5.856000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -11430,7 +11430,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>67.55199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -11441,7 +11441,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>1.576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -11452,7 +11452,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>1.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -11463,7 +11463,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>2.108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -11474,7 +11474,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>6.572</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -11485,7 +11485,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>135.939</v>
+        <v>69.71899999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -11496,7 +11496,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>5.223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -11507,7 +11507,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>5.278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -11518,7 +11518,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>609.499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -11529,7 +11529,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>7133.737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -11540,7 +11540,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>4471.447000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -11551,7 +11551,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -11562,7 +11562,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>1222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -11573,7 +11573,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>10447</v>
+        <v>928</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -11584,7 +11584,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>26997</v>
+        <v>8774</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -11595,7 +11595,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>7666</v>
+        <v>15042</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -11617,7 +11617,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0.953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -11628,7 +11628,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>156.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -11639,7 +11639,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>3741.888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -11650,7 +11650,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>528.8740000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -11683,7 +11683,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -11694,7 +11694,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>140.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -11705,7 +11705,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>1356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -11727,7 +11727,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -11738,7 +11738,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0.476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -11749,7 +11749,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>2.932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -11760,7 +11760,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>17.942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -11771,7 +11771,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -11782,7 +11782,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -11793,7 +11793,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>1874.661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -11804,7 +11804,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>21036.531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -11815,7 +11815,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>746.7080000000024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -11859,7 +11859,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0.235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -11870,7 +11870,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>2.902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -11903,7 +11903,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0.091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -11914,7 +11914,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>72.90900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -11925,7 +11925,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>18.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -11947,7 +11947,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>17.698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -11958,7 +11958,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>3.449999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -11969,7 +11969,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>82.57300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -11980,7 +11980,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>26.66399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -11991,7 +11991,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>7.684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -12002,7 +12002,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>27.742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -12013,7 +12013,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>20.446</v>
+        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -12024,7 +12024,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1052.647</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -12035,7 +12035,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>4226.936</v>
+        <v>2500.001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -12046,7 +12046,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>5.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -12057,7 +12057,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0.8900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -12068,7 +12068,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>1.869</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -12079,7 +12079,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>5.250999999999999</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -12090,7 +12090,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>91.67</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -12134,7 +12134,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>56.639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -12145,7 +12145,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>654.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -12156,7 +12156,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -12167,7 +12167,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -12178,7 +12178,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>208.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -12189,7 +12189,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>584.8249999999999</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -12200,7 +12200,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>546.097</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -12233,7 +12233,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0.036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -12244,7 +12244,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1981.964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -12255,7 +12255,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-204.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -12288,7 +12288,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>16.942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -12299,7 +12299,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>489.058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -12310,7 +12310,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -12332,7 +12332,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0.035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -12343,7 +12343,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>12.826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -12354,7 +12354,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>261.371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -12365,7 +12365,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>28.80699999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -12376,7 +12376,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -12387,7 +12387,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>33.979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -12398,7 +12398,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>6377.021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -12409,7 +12409,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>1841.217000000001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -12420,7 +12420,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>1153.782999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -12431,7 +12431,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>1.418</v>
+        <v>27.156</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -12442,7 +12442,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0.7089999999999999</v>
+        <v>36.906</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -12453,7 +12453,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>6.473</v>
+        <v>355.882</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -12464,7 +12464,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>88.40000000000001</v>
+        <v>294.348</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -12475,7 +12475,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>582</v>
+        <v>-44.29100000000005</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -12486,7 +12486,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -12497,7 +12497,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -12508,7 +12508,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -12519,7 +12519,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>1025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -12530,7 +12530,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>1059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/irena_elecgen_summary.xlsx
+++ b/irena_elecgen_summary.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Solar photovoltaic" sheetId="1" r:id="rId1"/>
-    <sheet name="Pumped storage" sheetId="2" r:id="rId2"/>
-    <sheet name="Renewable hydropower" sheetId="3" r:id="rId3"/>
-    <sheet name="Onshore wind energy" sheetId="4" r:id="rId4"/>
-    <sheet name="Mixed Hydro Plants" sheetId="5" r:id="rId5"/>
+    <sheet name="Mixed Hydro Plants" sheetId="1" r:id="rId1"/>
+    <sheet name="Offshore wind energy" sheetId="2" r:id="rId2"/>
+    <sheet name="Nuclear" sheetId="3" r:id="rId3"/>
+    <sheet name="Renewable hydropower" sheetId="4" r:id="rId4"/>
+    <sheet name="Onshore wind energy" sheetId="5" r:id="rId5"/>
     <sheet name="Concentrated solar power" sheetId="6" r:id="rId6"/>
-    <sheet name="Nuclear" sheetId="7" r:id="rId7"/>
-    <sheet name="Offshore wind energy" sheetId="8" r:id="rId8"/>
+    <sheet name="Pumped storage" sheetId="7" r:id="rId7"/>
+    <sheet name="Solar photovoltaic" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>3.229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -504,7 +504,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>17.789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -515,7 +515,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>67.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -526,7 +526,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>848.285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -537,7 +537,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>764.9949999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -559,7 +559,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -570,7 +570,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>558.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -581,7 +581,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2496.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -592,7 +592,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>1190.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -625,7 +625,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>14.865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -636,7 +636,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>1368.409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -647,7 +647,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>59.19400000000019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -691,7 +691,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>57.14400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -702,7 +702,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>25.83599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -713,7 +713,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -724,7 +724,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0.364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -735,7 +735,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>615.288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -746,7 +746,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>1648.144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -757,7 +757,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>47.72800000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -768,7 +768,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -779,7 +779,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -790,7 +790,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>4.027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -801,7 +801,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>598.2349999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -812,7 +812,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>359.0070000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0.092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -856,7 +856,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>5.856000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -867,7 +867,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>67.55199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -878,7 +878,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>1.576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -889,7 +889,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>1.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -900,7 +900,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>2.108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -911,7 +911,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>6.572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -922,7 +922,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>135.939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>5.223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -944,7 +944,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>5.278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -955,7 +955,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>609.499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -966,7 +966,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>7133.737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -977,7 +977,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>4471.447000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -988,7 +988,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -999,7 +999,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>1222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>10447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>26997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>7666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0.953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>156.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>3741.888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>528.8740000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>140.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>1356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0.476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>2.932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>17.942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>1874.661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>21036.531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>746.7080000000024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0.235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>2.902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0.091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>72.90900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>18.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>17.698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>3.449999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>82.57300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>26.66399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>7.684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>27.742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>20.446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1052.647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>4226.936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>5.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0.8900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>1.869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>5.250999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>91.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>56.639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>654.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>208.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>584.8249999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>546.097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0.036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1981.964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-204.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>16.942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>489.058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0.035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>12.826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>261.371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>28.80699999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>33.979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>6377.021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>1841.217000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>1153.782999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>1.418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0.7089999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>6.473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>88.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>1025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>1059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +2002,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>1382.701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2013,7 +2013,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>960.1410000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>852.163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2035,7 +2035,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>239.6669999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2046,7 +2046,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>-56.62199999999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2057,7 +2057,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>1239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2068,7 +2068,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2079,7 +2079,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>-256.9000000000001</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>-219.8999999999999</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2112,7 +2112,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>112.468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2134,7 +2134,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>228.7069999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2145,7 +2145,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>-169.419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2156,7 +2156,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-38.50999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2167,7 +2167,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>18.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2178,7 +2178,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>85.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2189,7 +2189,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>2.099999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>58.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2211,7 +2211,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>-58.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2222,7 +2222,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>92.09199999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>-55.98699999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2255,7 +2255,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>684.857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2266,7 +2266,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>-109.3050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2277,7 +2277,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>88.72799999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2288,7 +2288,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>803.855</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2299,7 +2299,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>890.3149999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2310,7 +2310,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3049.788</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2321,7 +2321,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1364.883000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2409,7 +2409,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2420,7 +2420,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2431,7 +2431,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>69.71899999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2442,7 +2442,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>4770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2453,7 +2453,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2464,7 +2464,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2475,7 +2475,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>145.0910000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>-298.3240000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2497,7 +2497,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2508,7 +2508,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>2549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>-379</v>
+        <v>928</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2530,7 +2530,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-479</v>
+        <v>8774</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2541,7 +2541,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>15042</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2574,7 +2574,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>23.479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2585,7 +2585,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>28.647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2596,7 +2596,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>21.154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2673,7 +2673,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>39.91000000000003</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2684,7 +2684,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>-167.048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2695,7 +2695,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>111.246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2706,7 +2706,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>-42.78900000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2717,7 +2717,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>6700.189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2728,7 +2728,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>159.9780000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>-3570.268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2750,7 +2750,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>-1857.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2761,7 +2761,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>402.8389999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2827,7 +2827,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2849,7 +2849,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>-72.70000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>747.126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2893,7 +2893,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>37.36000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2904,7 +2904,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>575.842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2915,7 +2915,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>71.04199999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2926,7 +2926,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>-588.9939999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2959,7 +2959,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2970,7 +2970,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>2500.001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2992,7 +2992,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3003,7 +3003,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3014,7 +3014,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>-351</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3025,7 +3025,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>735</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3036,7 +3036,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-264</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3047,7 +3047,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>2010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3058,7 +3058,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>-433.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3069,7 +3069,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>-1008.573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3080,7 +3080,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>34.79700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>103.472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3102,7 +3102,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3113,7 +3113,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3124,7 +3124,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3135,7 +3135,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>740</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3146,7 +3146,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>285.8009999999999</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3179,7 +3179,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>360.098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3190,7 +3190,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>14.37799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>50.60300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3212,7 +3212,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3223,7 +3223,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>-257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3234,7 +3234,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3245,7 +3245,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>-123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3256,7 +3256,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>-56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3289,7 +3289,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>184.718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>98.35300000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3311,7 +3311,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>-79.92800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3322,7 +3322,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>3551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3333,7 +3333,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>1081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3344,7 +3344,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>-1425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3355,7 +3355,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3366,7 +3366,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>35</v>
+        <v>27.156</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3388,7 +3388,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>36.129</v>
+        <v>36.906</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3399,7 +3399,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>31.871</v>
+        <v>355.882</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>24.265</v>
+        <v>294.348</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3421,7 +3421,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-105.265</v>
+        <v>-44.29100000000005</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3432,7 +3432,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>1395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3443,7 +3443,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3454,7 +3454,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>-97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3465,7 +3465,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>-140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>1299</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3511,7 +3511,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>41835.651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>-4740.512999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>1268.279999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>-1206.551999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>3298.479999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>460</v>
+        <v>48157</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>-172</v>
+        <v>-562</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>6.399999999999977</v>
+        <v>-21841</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>-16.39999999999998</v>
+        <v>17420.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>2631</v>
+        <v>18178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>1666.428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>733.9130000000005</v>
+        <v>-3404</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>623.4449999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-2725.287</v>
+        <v>1172.288</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3676,7 +3676,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>6452.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>583.6000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>2089.703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>-2735.566999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>-564.5360000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>1758</v>
+        <v>13590</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>621.9099999999999</v>
+        <v>11138</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>409.5640000000003</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>-994.6670000000001</v>
+        <v>-1157</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>213.222</v>
+        <v>3405.208999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>-2.358000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>-2.611999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>-0.8130000000000024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3841,7 +3841,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>4.881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>-0.2809999999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>-7.600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>14660</v>
+        <v>22479</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>-876</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>-862.0059999999994</v>
+        <v>-471</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>3846.704</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>-4355.991</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>66363.249</v>
+        <v>415162</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>-14883.372</v>
+        <v>36367</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>11233.74</v>
+        <v>-23008</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>-7157.345000000001</v>
+        <v>8906.808000000019</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>1357.619000000006</v>
+        <v>-38416.22100000002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>21732</v>
+        <v>169606</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>-2094</v>
+        <v>-6551</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>1315</v>
+        <v>-22499</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-1977</v>
+        <v>-48770</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>755</v>
+        <v>-16715</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>4111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>1499.497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>1864.255999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>-1376.558999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>-2120.579000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>178</v>
+        <v>14180</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>24.15299999999999</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>-13.76900000000001</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>45.32700000000003</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>-14.71100000000001</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>-215.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>-32.029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>207.259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>80.09399999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>44199.446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>-8132.713000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>15050.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>-5579.440000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>781.2090000000026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>2819.157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>506.1320000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>195.2169999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>-1660.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>247.1990000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>340</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>111</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>89</v>
+        <v>-10337</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>-191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>-3.600000000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>123.504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>-30.56500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>14.72200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>-8.408000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4435,7 +4435,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>7.662000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4446,7 +4446,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>142.43</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4457,7 +4457,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>-54.43000000000001</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>17</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4479,7 +4479,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>-12.301</v>
+        <v>109.0410000000002</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4490,7 +4490,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>-18.517</v>
+        <v>-168.2930000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4501,7 +4501,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>141818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4512,7 +4512,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>-6130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4523,7 +4523,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>-18949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4534,7 +4534,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>20563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4545,7 +4545,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-11781.933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4556,7 +4556,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>2106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4567,7 +4567,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>95.11499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4578,7 +4578,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>718.8270000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4589,7 +4589,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>-1087.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4600,7 +4600,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>126.2139999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4611,7 +4611,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>11323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4622,7 +4622,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>-6592.337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4633,7 +4633,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>11417.234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4644,7 +4644,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>-7487.391000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4655,7 +4655,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>157.2080000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4666,7 +4666,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>14778</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4677,7 +4677,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>5428.852999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>-323.969000000001</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4699,7 +4699,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>-3250.806999999997</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4710,7 +4710,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-1051.455000000002</v>
+        <v>-359.8330000000005</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4721,7 +4721,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>4615</v>
+        <v>16494</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4732,7 +4732,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>23</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4743,7 +4743,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>617</v>
+        <v>-3153</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4754,7 +4754,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>-1389</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4765,7 +4765,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>490</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4776,7 +4776,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>3834.721</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4787,7 +4787,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>-373.7559999999999</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4798,7 +4798,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>1057.272</v>
+        <v>-227</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4809,7 +4809,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>-711.1330000000003</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4820,7 +4820,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>672.2919999999999</v>
+        <v>173.2569999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4831,7 +4831,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>28256</v>
+        <v>62206</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4842,7 +4842,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>-9863</v>
+        <v>-4667</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4853,7 +4853,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>23911</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4864,7 +4864,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>-14164</v>
+        <v>-4794</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4875,7 +4875,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>-3494</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4886,7 +4886,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>78584</v>
+        <v>57316</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>-5781</v>
+        <v>15061</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4908,7 +4908,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>-6405.212</v>
+        <v>-14549</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4919,7 +4919,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>8914.694000000003</v>
+        <v>-1480</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4930,7 +4930,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-9941.482000000004</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4941,7 +4941,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>36835</v>
+        <v>26446</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4952,7 +4952,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>-5609</v>
+        <v>-3105</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4963,7 +4963,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>4836</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4974,7 +4974,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>2196</v>
+        <v>-3250</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4985,7 +4985,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>-218</v>
+        <v>3329</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5020,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>66.754</v>
+        <v>41835.651</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>1264.523</v>
+        <v>-4740.512999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>732.6370000000002</v>
+        <v>1268.279999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>2776.407</v>
+        <v>-1206.551999999996</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>2637.042</v>
+        <v>3298.479999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>211</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>875</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>1859</v>
+        <v>6.399999999999977</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>2119.6</v>
+        <v>-16.39999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>4.587</v>
+        <v>1666.428</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>676.782</v>
+        <v>733.9130000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>770.1419999999999</v>
+        <v>623.4449999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-134.5229999999999</v>
+        <v>-2725.287</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6452.9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>583.6000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>129.1</v>
+        <v>2089.703</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>657.1949999999999</v>
+        <v>-2735.566999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>671.005</v>
+        <v>-564.5360000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.885</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>20.395</v>
+        <v>621.9099999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>314.213</v>
+        <v>409.5640000000003</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>237.119</v>
+        <v>-994.6670000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>127.402</v>
+        <v>213.222</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>4152.272</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>1569.145</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>305.107</v>
+        <v>-2.358000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5328,7 +5328,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>3273.882000000001</v>
+        <v>-2.611999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5339,7 +5339,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>651.8579999999984</v>
+        <v>-0.8130000000000024</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5350,7 +5350,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5361,7 +5361,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5372,7 +5372,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>222.992</v>
+        <v>4.881</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5383,7 +5383,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>438.008</v>
+        <v>-0.2809999999999988</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5394,7 +5394,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>-28</v>
+        <v>-7.600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5405,7 +5405,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>78</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5416,7 +5416,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>91.94200000000001</v>
+        <v>-876</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5427,7 +5427,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>85.375</v>
+        <v>-862.0059999999994</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5438,7 +5438,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>1998.042</v>
+        <v>3846.704</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5449,7 +5449,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>3627.668</v>
+        <v>-4355.991</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5460,7 +5460,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>48.16</v>
+        <v>66363.249</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5471,7 +5471,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>914.4100000000001</v>
+        <v>-14883.372</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5482,7 +5482,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>8982.42</v>
+        <v>11233.74</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5493,7 +5493,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>11475.612</v>
+        <v>-7157.345000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5504,7 +5504,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>13301.082</v>
+        <v>1357.619000000006</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5515,7 +5515,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>9352</v>
+        <v>21732</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5526,7 +5526,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>18422</v>
+        <v>-2094</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5537,7 +5537,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>9845</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5548,7 +5548,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>33303</v>
+        <v>-1977</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5559,7 +5559,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>30228</v>
+        <v>755</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5570,7 +5570,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>451</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5581,7 +5581,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>815.452</v>
+        <v>1499.497</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5592,7 +5592,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>1447.485</v>
+        <v>1864.255999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5603,7 +5603,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>1907.082</v>
+        <v>-1376.558999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5614,7 +5614,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>2645.328</v>
+        <v>-2120.579000000001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5625,7 +5625,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>10.095</v>
+        <v>24.15299999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5647,7 +5647,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>523.697</v>
+        <v>-13.76900000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5658,7 +5658,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>159.5309999999999</v>
+        <v>45.32700000000003</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5669,7 +5669,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>35.67700000000002</v>
+        <v>-14.71100000000001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5680,7 +5680,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>244</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5691,7 +5691,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>787.9100000000001</v>
+        <v>-215.74</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5702,7 +5702,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>1702.749</v>
+        <v>-32.029</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5713,7 +5713,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>3757.338999999999</v>
+        <v>207.259</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5724,7 +5724,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>3446.487000000001</v>
+        <v>80.09399999999994</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5735,7 +5735,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>563</v>
+        <v>44199.446</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1780.399</v>
+        <v>-8132.713000000003</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5757,7 +5757,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>6782.519</v>
+        <v>15050.031</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5768,7 +5768,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>5717.964</v>
+        <v>-5579.440000000002</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5779,7 +5779,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>5358.160000000002</v>
+        <v>781.2090000000026</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5790,7 +5790,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>4.417</v>
+        <v>2819.157</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5801,7 +5801,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>42.437</v>
+        <v>506.1320000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5812,7 +5812,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>2.203000000000003</v>
+        <v>195.2169999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5823,7 +5823,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>98.07799999999999</v>
+        <v>-1660.151</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5834,7 +5834,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>6.864000000000004</v>
+        <v>247.1990000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5845,7 +5845,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5867,7 +5867,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>222</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5878,7 +5878,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>586</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5889,7 +5889,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>689.4000000000001</v>
+        <v>-3.600000000000023</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5900,7 +5900,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>24.743</v>
+        <v>123.504</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5911,7 +5911,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>27.508</v>
+        <v>-30.56500000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5922,7 +5922,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>2.832000000000001</v>
+        <v>14.72200000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5933,7 +5933,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>46.765</v>
+        <v>-8.408000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5944,7 +5944,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>179.435</v>
+        <v>7.662000000000006</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5955,7 +5955,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>829.03</v>
+        <v>142.43</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>1237.625</v>
+        <v>-54.43000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5977,7 +5977,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>1247.482</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5988,7 +5988,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>3105.737</v>
+        <v>-12.301</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5999,7 +5999,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>1458.052000000001</v>
+        <v>-18.517</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6010,7 +6010,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>31</v>
+        <v>141818</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6021,7 +6021,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>468</v>
+        <v>-6130</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6032,7 +6032,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>375</v>
+        <v>-18949</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6043,7 +6043,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>1634</v>
+        <v>20563</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6054,7 +6054,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>3023.25</v>
+        <v>-11781.933</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6076,7 +6076,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>130.47</v>
+        <v>95.11499999999978</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6087,7 +6087,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>1528.869</v>
+        <v>718.8270000000002</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6098,7 +6098,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>9194.026</v>
+        <v>-1087.74</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6109,7 +6109,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>4248.394</v>
+        <v>126.2139999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6120,7 +6120,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>168</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6131,7 +6131,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>1605.263</v>
+        <v>-6592.337</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6142,7 +6142,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>7408.309</v>
+        <v>11417.234</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6153,7 +6153,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>2421.366</v>
+        <v>-7487.391000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6164,7 +6164,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>2064.011</v>
+        <v>157.2080000000005</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>14778</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -6186,7 +6186,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0.227</v>
+        <v>5428.852999999999</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -6197,7 +6197,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>306.121</v>
+        <v>-323.969000000001</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6208,7 +6208,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>6756.582</v>
+        <v>-3250.806999999997</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6219,7 +6219,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-290.1210000000001</v>
+        <v>-1051.455000000002</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6230,7 +6230,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -6241,7 +6241,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6252,7 +6252,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -6263,7 +6263,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-1389</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -6274,7 +6274,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6285,7 +6285,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>3834.721</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -6296,7 +6296,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>-373.7559999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -6307,7 +6307,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1057.272</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -6318,7 +6318,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>6.028</v>
+        <v>-711.1330000000003</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -6329,7 +6329,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0.1220000000000008</v>
+        <v>672.2919999999999</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6340,7 +6340,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>4727</v>
+        <v>28256</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6351,7 +6351,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>16449</v>
+        <v>-9863</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6362,7 +6362,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>23095</v>
+        <v>23911</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6373,7 +6373,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>5043</v>
+        <v>-14164</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6384,7 +6384,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>6322</v>
+        <v>-3494</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>429.844</v>
+        <v>78584</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6406,7 +6406,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>441.094</v>
+        <v>-5781</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6417,7 +6417,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>2196.118</v>
+        <v>-6405.212</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6428,7 +6428,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>12540.652</v>
+        <v>8914.694000000003</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6439,7 +6439,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>3569.290999999999</v>
+        <v>-9941.482000000004</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6450,7 +6450,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>36835</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6461,7 +6461,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>-5609</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6472,7 +6472,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>29</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6483,7 +6483,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>73</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>36</v>
+        <v>-218</v>
       </c>
     </row>
   </sheetData>
@@ -6529,7 +6529,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>66.754</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6540,7 +6540,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1264.523</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6551,7 +6551,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>732.6370000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6562,7 +6562,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2776.407</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6573,7 +6573,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2637.042</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6584,7 +6584,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6606,7 +6606,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6617,7 +6617,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6628,7 +6628,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2119.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6650,7 +6650,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4.587</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6661,7 +6661,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>676.782</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6672,7 +6672,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>770.1419999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6683,7 +6683,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-134.5229999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6705,7 +6705,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6716,7 +6716,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>129.1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6727,7 +6727,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>657.1949999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6738,7 +6738,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>671.005</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6749,7 +6749,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6760,7 +6760,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>20.395</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6771,7 +6771,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>314.213</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6782,7 +6782,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>237.119</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6793,7 +6793,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>127.402</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6804,7 +6804,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>4152.272</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6815,7 +6815,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1569.145</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6826,7 +6826,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>305.107</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6837,7 +6837,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3273.882000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6848,7 +6848,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>651.8579999999984</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6870,7 +6870,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6881,7 +6881,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>222.992</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6892,7 +6892,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>438.008</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6903,7 +6903,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6914,7 +6914,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6925,7 +6925,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>91.94200000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6936,7 +6936,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>85.375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6947,7 +6947,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1998.042</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6958,7 +6958,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3627.668</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6969,7 +6969,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6980,7 +6980,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>914.4100000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6991,7 +6991,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>8982.42</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7002,7 +7002,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>11475.612</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7013,7 +7013,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>13301.082</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7024,7 +7024,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>9352</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7035,7 +7035,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>18422</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7046,7 +7046,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>9845</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7057,7 +7057,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>33303</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7068,7 +7068,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>30228</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7079,7 +7079,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7090,7 +7090,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>815.452</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7101,7 +7101,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1447.485</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7112,7 +7112,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1907.082</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7123,7 +7123,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2645.328</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7145,7 +7145,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>10.095</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7156,7 +7156,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>523.697</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7167,7 +7167,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>159.5309999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7178,7 +7178,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>35.67700000000002</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7189,7 +7189,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7200,7 +7200,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>787.9100000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7211,7 +7211,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1702.749</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7222,7 +7222,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>3757.338999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7233,7 +7233,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>3446.487000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7244,7 +7244,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7255,7 +7255,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1780.399</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7266,7 +7266,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6782.519</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7277,7 +7277,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>5717.964</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7288,7 +7288,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5358.160000000002</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7299,7 +7299,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>4.417</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7310,7 +7310,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>42.437</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7321,7 +7321,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2.203000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7332,7 +7332,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>98.07799999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7343,7 +7343,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>6.864000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7365,7 +7365,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7376,7 +7376,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7387,7 +7387,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7398,7 +7398,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>689.4000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7409,7 +7409,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>24.743</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7420,7 +7420,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>27.508</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2.832000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7442,7 +7442,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>46.765</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>179.435</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -7464,7 +7464,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>829.03</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1237.625</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1247.482</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>3105.737</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7508,7 +7508,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1458.052000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7519,7 +7519,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7530,7 +7530,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7541,7 +7541,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -7552,7 +7552,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7563,7 +7563,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>3023.25</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -7574,7 +7574,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -7585,7 +7585,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>130.47</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -7596,7 +7596,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1528.869</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -7607,7 +7607,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>9194.026</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -7618,7 +7618,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>4248.394</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -7629,7 +7629,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -7640,7 +7640,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1605.263</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -7651,7 +7651,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>7408.309</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -7662,7 +7662,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>2421.366</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -7673,7 +7673,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>2064.011</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -7695,7 +7695,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -7706,7 +7706,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>306.121</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -7717,7 +7717,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>6756.582</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -7728,7 +7728,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>-290.1210000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -7750,7 +7750,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -7827,7 +7827,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>6.028</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -7838,7 +7838,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.1220000000000008</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -7849,7 +7849,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -7860,7 +7860,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>16449</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -7871,7 +7871,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>23095</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7882,7 +7882,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -7893,7 +7893,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -7904,7 +7904,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>429.844</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -7915,7 +7915,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>441.094</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -7926,7 +7926,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>2196.118</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -7937,7 +7937,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>12540.652</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -7948,7 +7948,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>3569.290999999999</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -7959,7 +7959,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7970,7 +7970,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -7981,7 +7981,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -7992,7 +7992,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -8003,7 +8003,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -9547,7 +9547,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1382.701</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9558,7 +9558,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>960.1410000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9569,7 +9569,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>852.163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9580,7 +9580,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>239.6669999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9591,7 +9591,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-56.62199999999984</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9602,7 +9602,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>48157</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9613,7 +9613,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>-562</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9624,7 +9624,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>349</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9635,7 +9635,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>-21841</v>
+        <v>-256.9000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9646,7 +9646,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>17420.6</v>
+        <v>-219.8999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9657,7 +9657,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>18178</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9668,7 +9668,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>475</v>
+        <v>112.468</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9679,7 +9679,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>-3404</v>
+        <v>228.7069999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9690,7 +9690,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>134</v>
+        <v>-169.419</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9701,7 +9701,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>1172.288</v>
+        <v>-38.50999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9712,7 +9712,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9723,7 +9723,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9734,7 +9734,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.099999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9745,7 +9745,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>58.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9756,7 +9756,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-58.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9767,7 +9767,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>13590</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9778,7 +9778,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>11138</v>
+        <v>92.09199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9789,7 +9789,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>3270</v>
+        <v>-55.98699999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9800,7 +9800,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>-1157</v>
+        <v>684.857</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9811,7 +9811,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>3405.208999999999</v>
+        <v>-109.3050000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9932,7 +9932,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>22479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -9943,7 +9943,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -9954,7 +9954,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>-471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9965,7 +9965,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9976,7 +9976,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -9987,7 +9987,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>415162</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9998,7 +9998,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>36367</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10009,7 +10009,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>-23008</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10020,7 +10020,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>8906.808000000019</v>
+        <v>145.0910000000003</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10031,7 +10031,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>-38416.22100000002</v>
+        <v>-298.3240000000005</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10042,7 +10042,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>169606</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10053,7 +10053,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>-6551</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10064,7 +10064,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>-22499</v>
+        <v>-379</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10075,7 +10075,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-48770</v>
+        <v>-479</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10086,7 +10086,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>-16715</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10119,7 +10119,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>23.479</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10130,7 +10130,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>28.647</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -10141,7 +10141,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>21.154</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10152,7 +10152,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>14180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -10163,7 +10163,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>-346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -10174,7 +10174,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>1927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -10185,7 +10185,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -10196,7 +10196,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -10207,7 +10207,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -10218,7 +10218,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>39.91000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -10229,7 +10229,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-167.048</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -10240,7 +10240,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>111.246</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -10251,7 +10251,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>-42.78900000000002</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -10262,7 +10262,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>6700.189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -10273,7 +10273,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>159.9780000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -10284,7 +10284,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>-3570.268</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -10295,7 +10295,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-1857.755</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -10306,7 +10306,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>402.8389999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10372,7 +10372,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>8419</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -10383,7 +10383,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>1918</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -10394,7 +10394,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>-10337</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -10405,7 +10405,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -10416,7 +10416,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>-72.70000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -10427,7 +10427,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>747.126</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -10438,7 +10438,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>37.36000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -10449,7 +10449,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>575.842</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -10460,7 +10460,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>71.04199999999992</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -10471,7 +10471,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>-588.9939999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -10482,7 +10482,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>3926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -10493,7 +10493,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -10504,7 +10504,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -10515,7 +10515,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>109.0410000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -10526,7 +10526,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>-168.2930000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -10537,7 +10537,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -10548,7 +10548,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -10559,7 +10559,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>-351</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -10570,7 +10570,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -10581,7 +10581,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-264</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -10592,7 +10592,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -10603,7 +10603,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>-433.23</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -10614,7 +10614,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-1008.573</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -10625,7 +10625,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>34.79700000000003</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -10636,7 +10636,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>103.472</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -10647,7 +10647,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -10658,7 +10658,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -10669,7 +10669,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -10680,7 +10680,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -10691,7 +10691,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>285.8009999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -10702,7 +10702,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>5456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -10713,7 +10713,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -10724,7 +10724,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>6068</v>
+        <v>360.098</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -10735,7 +10735,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>14.37799999999999</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -10746,7 +10746,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-359.8330000000005</v>
+        <v>50.60300000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -10757,7 +10757,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>16494</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -10768,7 +10768,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>1233</v>
+        <v>-257</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -10779,7 +10779,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>-3153</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -10790,7 +10790,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>572</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -10801,7 +10801,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>136</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -10812,7 +10812,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>4761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -10823,7 +10823,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>1123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -10834,7 +10834,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>-227</v>
+        <v>184.718</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -10845,7 +10845,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>-9</v>
+        <v>98.35300000000004</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -10856,7 +10856,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>173.2569999999996</v>
+        <v>-79.92800000000003</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -10867,7 +10867,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>62206</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -10878,7 +10878,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>-4667</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -10889,7 +10889,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>4451</v>
+        <v>-1425</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -10900,7 +10900,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>-4794</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -10911,7 +10911,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>1153</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -10922,7 +10922,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>57316</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -10933,7 +10933,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>15061</v>
+        <v>36.129</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -10944,7 +10944,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>-14549</v>
+        <v>31.871</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -10955,7 +10955,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>-1480</v>
+        <v>24.265</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -10966,7 +10966,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>9782</v>
+        <v>-105.265</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -10977,7 +10977,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>26446</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -10988,7 +10988,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>-3105</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -10999,7 +10999,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>2998</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -11010,7 +11010,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>-3250</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -11021,7 +11021,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>3329</v>
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -11056,7 +11056,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11067,7 +11067,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>17.789</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11078,7 +11078,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>67.795</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11089,7 +11089,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>848.285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11100,7 +11100,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>764.9949999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11122,7 +11122,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11133,7 +11133,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>190</v>
+        <v>558.66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11144,7 +11144,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2423</v>
+        <v>2496.3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11155,7 +11155,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>2032</v>
+        <v>1190.7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11188,7 +11188,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>14.865</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11199,7 +11199,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1368.409</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11210,7 +11210,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>59.19400000000019</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11243,7 +11243,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11254,7 +11254,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>57.14400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11265,7 +11265,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>25.83599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11276,7 +11276,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11287,7 +11287,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11298,7 +11298,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>615.288</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11309,7 +11309,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1648.144</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11320,7 +11320,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>47.72800000000007</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11331,7 +11331,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>88.72799999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11342,7 +11342,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>803.855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11353,7 +11353,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>890.3149999999999</v>
+        <v>4.027</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11364,7 +11364,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>3049.788</v>
+        <v>598.2349999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11375,7 +11375,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>1364.883000000001</v>
+        <v>359.0070000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11408,7 +11408,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -11419,7 +11419,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5.856000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -11430,7 +11430,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>67.55199999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -11441,7 +11441,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1.576</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -11452,7 +11452,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -11463,7 +11463,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>2.108</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -11474,7 +11474,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>6.572</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -11485,7 +11485,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>69.71899999999999</v>
+        <v>135.939</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -11496,7 +11496,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>5.223</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -11507,7 +11507,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>5.278</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -11518,7 +11518,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>609.499</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -11529,7 +11529,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>7133.737</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -11540,7 +11540,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>4471.447000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -11551,7 +11551,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -11562,7 +11562,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -11573,7 +11573,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>928</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -11584,7 +11584,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>8774</v>
+        <v>26997</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -11595,7 +11595,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>15042</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -11617,7 +11617,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -11628,7 +11628,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>156.795</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -11639,7 +11639,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>3741.888</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -11650,7 +11650,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>528.8740000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -11683,7 +11683,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -11694,7 +11694,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>140.15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -11705,7 +11705,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -11727,7 +11727,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -11738,7 +11738,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -11749,7 +11749,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2.932</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -11760,7 +11760,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>17.942</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -11771,7 +11771,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -11782,7 +11782,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -11793,7 +11793,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1874.661</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -11804,7 +11804,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>21036.531</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -11815,7 +11815,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>746.7080000000024</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -11859,7 +11859,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -11870,7 +11870,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2.902</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -11903,7 +11903,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -11914,7 +11914,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>72.90900000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -11925,7 +11925,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>18.09999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -11947,7 +11947,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>17.698</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -11958,7 +11958,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>3.449999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -11969,7 +11969,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>82.57300000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -11980,7 +11980,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>26.66399999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -11991,7 +11991,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>7.684</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -12002,7 +12002,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>27.742</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -12013,7 +12013,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>679</v>
+        <v>20.446</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -12024,7 +12024,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>451</v>
+        <v>1052.647</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -12035,7 +12035,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>2500.001</v>
+        <v>4226.936</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -12046,7 +12046,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -12057,7 +12057,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>0.8900000000000006</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -12068,7 +12068,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>1.869</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -12079,7 +12079,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>5.250999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -12090,7 +12090,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-2</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -12134,7 +12134,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -12145,7 +12145,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>654.034</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -12156,7 +12156,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -12167,7 +12167,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -12178,7 +12178,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>208.33</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -12189,7 +12189,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>4.7</v>
+        <v>584.8249999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -12200,7 +12200,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>-4.7</v>
+        <v>546.097</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -12233,7 +12233,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -12244,7 +12244,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1981.964</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -12255,7 +12255,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>-204.385</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -12288,7 +12288,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>16.942</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -12299,7 +12299,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>489.058</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -12310,7 +12310,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -12332,7 +12332,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -12343,7 +12343,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>12.826</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -12354,7 +12354,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>261.371</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -12365,7 +12365,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>28.80699999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -12376,7 +12376,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -12387,7 +12387,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>33.979</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -12398,7 +12398,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>6377.021</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -12409,7 +12409,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>1841.217000000001</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -12420,7 +12420,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1153.782999999999</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -12431,7 +12431,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>27.156</v>
+        <v>1.418</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -12442,7 +12442,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>36.906</v>
+        <v>0.7089999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -12453,7 +12453,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>355.882</v>
+        <v>6.473</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -12464,7 +12464,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>294.348</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -12475,7 +12475,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-44.29100000000005</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -12486,7 +12486,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -12497,7 +12497,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -12508,7 +12508,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -12519,7 +12519,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -12530,7 +12530,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>

--- a/irena_elecgen_summary.xlsx
+++ b/irena_elecgen_summary.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Mixed Hydro Plants" sheetId="1" r:id="rId1"/>
-    <sheet name="Offshore wind energy" sheetId="2" r:id="rId2"/>
-    <sheet name="Nuclear" sheetId="3" r:id="rId3"/>
-    <sheet name="Renewable hydropower" sheetId="4" r:id="rId4"/>
-    <sheet name="Onshore wind energy" sheetId="5" r:id="rId5"/>
-    <sheet name="Concentrated solar power" sheetId="6" r:id="rId6"/>
-    <sheet name="Pumped storage" sheetId="7" r:id="rId7"/>
-    <sheet name="Solar photovoltaic" sheetId="8" r:id="rId8"/>
+    <sheet name="Pumped storage" sheetId="1" r:id="rId1"/>
+    <sheet name="Renewable hydropower" sheetId="2" r:id="rId2"/>
+    <sheet name="Offshore wind energy" sheetId="3" r:id="rId3"/>
+    <sheet name="Solar photovoltaic" sheetId="4" r:id="rId4"/>
+    <sheet name="Nuclear" sheetId="5" r:id="rId5"/>
+    <sheet name="Onshore wind energy" sheetId="6" r:id="rId6"/>
+    <sheet name="Mixed Hydro Plants" sheetId="7" r:id="rId7"/>
+    <sheet name="Concentrated solar power" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1382.701</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -504,7 +504,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>960.1410000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -515,7 +515,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>852.163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -526,7 +526,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>239.6669999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -537,7 +537,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-56.62199999999984</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -548,7 +548,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -559,7 +559,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -570,7 +570,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -581,7 +581,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-256.9000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -592,7 +592,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-219.8999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -603,7 +603,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -614,7 +614,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>112.468</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -625,7 +625,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>228.7069999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -636,7 +636,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-169.419</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -647,7 +647,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-38.50999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -658,7 +658,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -669,7 +669,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2.099999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -691,7 +691,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>58.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -702,7 +702,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-58.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -713,7 +713,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -724,7 +724,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>92.09199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -735,7 +735,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-55.98699999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -746,7 +746,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>684.857</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -757,7 +757,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-109.3050000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -944,7 +944,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -955,7 +955,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -966,7 +966,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>145.0910000000003</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -977,7 +977,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-298.3240000000005</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -988,7 +988,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -999,7 +999,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-379</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>-479</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>23.479</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>28.647</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>21.154</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>39.91000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-167.048</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>111.246</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>-42.78900000000002</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>6700.189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>159.9780000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>-3570.268</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-1857.755</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>402.8389999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>-72.70000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>747.126</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>37.36000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>575.842</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>71.04199999999992</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>-588.9939999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>-351</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-264</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>-433.23</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-1008.573</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>34.79700000000003</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>103.472</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>285.8009999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>360.098</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>14.37799999999999</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>50.60300000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>-257</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>184.718</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>98.35300000000004</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>-79.92800000000003</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>-1425</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>36.129</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>31.871</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>24.265</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>-105.265</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +2002,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>41835.651</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2013,7 +2013,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-4740.512999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1268.279999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2035,7 +2035,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1206.551999999996</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2046,7 +2046,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3298.479999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2057,7 +2057,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2068,7 +2068,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2079,7 +2079,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>190</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2423</v>
+        <v>6.399999999999977</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>2032</v>
+        <v>-16.39999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2112,7 +2112,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1666.428</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2134,7 +2134,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>733.9130000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2145,7 +2145,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>623.4449999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2156,7 +2156,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-2725.287</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2167,7 +2167,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6452.9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2178,7 +2178,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>583.6000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2189,7 +2189,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2089.703</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-2735.566999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2211,7 +2211,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-564.5360000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2222,7 +2222,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>621.9099999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>409.5640000000003</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2255,7 +2255,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-994.6670000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2266,7 +2266,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>213.222</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2277,7 +2277,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>88.72799999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2288,7 +2288,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>803.855</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2299,7 +2299,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>890.3149999999999</v>
+        <v>-2.358000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2310,7 +2310,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>3049.788</v>
+        <v>-2.611999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2321,7 +2321,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>1364.883000000001</v>
+        <v>-0.8130000000000024</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2332,7 +2332,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2343,7 +2343,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2354,7 +2354,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>4.881</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.2809999999999988</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2376,7 +2376,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-7.600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2387,7 +2387,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2398,7 +2398,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-876</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2409,7 +2409,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>-862.0059999999994</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2420,7 +2420,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>3846.704</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2431,7 +2431,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>69.71899999999999</v>
+        <v>-4355.991</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2442,7 +2442,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>66363.249</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2453,7 +2453,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-14883.372</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2464,7 +2464,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>11233.74</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2475,7 +2475,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-7157.345000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1357.619000000006</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2497,7 +2497,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>21732</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2508,7 +2508,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>-2094</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>928</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2530,7 +2530,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>8774</v>
+        <v>-1977</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2541,7 +2541,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>15042</v>
+        <v>755</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2552,7 +2552,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2563,7 +2563,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1499.497</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2574,7 +2574,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1864.255999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2585,7 +2585,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-1376.558999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2596,7 +2596,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>-2120.579000000001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>24.15299999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>-13.76900000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2640,7 +2640,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>45.32700000000003</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2651,7 +2651,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>-14.71100000000001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2673,7 +2673,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>80</v>
+        <v>-215.74</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2684,7 +2684,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-32.029</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2695,7 +2695,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>207.259</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2706,7 +2706,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>80.09399999999994</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2717,7 +2717,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>44199.446</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2728,7 +2728,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>-8132.713000000003</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>15050.031</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2750,7 +2750,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-5579.440000000002</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2761,7 +2761,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>781.2090000000026</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2772,7 +2772,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>2819.157</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2783,7 +2783,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>506.1320000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2794,7 +2794,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>195.2169999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2805,7 +2805,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>-1660.151</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2816,7 +2816,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>247.1990000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2827,7 +2827,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2849,7 +2849,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>-3.600000000000023</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>123.504</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2893,7 +2893,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>-30.56500000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2904,7 +2904,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>14.72200000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2915,7 +2915,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>-8.408000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2926,7 +2926,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>7.662000000000006</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2937,7 +2937,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>142.43</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>-54.43000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2959,7 +2959,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>679</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2970,7 +2970,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>451</v>
+        <v>-12.301</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>2500.001</v>
+        <v>-18.517</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2992,7 +2992,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>141818</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3003,7 +3003,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>-6130</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3014,7 +3014,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>-18949</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3025,7 +3025,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>20563</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3036,7 +3036,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-2</v>
+        <v>-11781.933</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3047,7 +3047,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3058,7 +3058,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>95.11499999999978</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3069,7 +3069,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>718.8270000000002</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3080,7 +3080,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-1087.74</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>126.2139999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3102,7 +3102,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3113,7 +3113,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>-6592.337</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3124,7 +3124,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>11417.234</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3135,7 +3135,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>4.7</v>
+        <v>-7487.391000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3146,7 +3146,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>-4.7</v>
+        <v>157.2080000000005</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>14778</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3168,7 +3168,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>5428.852999999999</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3179,7 +3179,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>-323.969000000001</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3190,7 +3190,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>-3250.806999999997</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>-1051.455000000002</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3212,7 +3212,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3223,7 +3223,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3234,7 +3234,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3245,7 +3245,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-1389</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3256,7 +3256,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>3834.721</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3278,7 +3278,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>-373.7559999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3289,7 +3289,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1057.272</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>-711.1330000000003</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3311,7 +3311,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>672.2919999999999</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3322,7 +3322,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>28256</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3333,7 +3333,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>-9863</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3344,7 +3344,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>23911</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3355,7 +3355,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>-14164</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3366,7 +3366,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>-3494</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>27.156</v>
+        <v>78584</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3388,7 +3388,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>36.906</v>
+        <v>-5781</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3399,7 +3399,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>355.882</v>
+        <v>-6405.212</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>294.348</v>
+        <v>8914.694000000003</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3421,7 +3421,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-44.29100000000005</v>
+        <v>-9941.482000000004</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3432,7 +3432,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>36835</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3443,7 +3443,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>-5609</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3454,7 +3454,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3465,7 +3465,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>-218</v>
       </c>
     </row>
   </sheetData>
@@ -3566,7 +3566,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>48157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>-562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>349</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>-21841</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>17420.6</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3621,7 +3621,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>18178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>-3404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>1172.288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>13590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>11138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>3270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>-1157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>3405.208999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>88.72799999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>803.855</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>890.3149999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3049.788</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1364.883000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>22479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>-471</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>445</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>625</v>
+        <v>69.71899999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>415162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>36367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>-23008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>8906.808000000019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>-38416.22100000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>169606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>-6551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>-22499</v>
+        <v>928</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-48770</v>
+        <v>8774</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>-16715</v>
+        <v>15042</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4116,7 +4116,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>14180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>-346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>1927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4336,7 +4336,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>8419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>1918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>-10337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4446,7 +4446,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>3926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4457,7 +4457,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>-28</v>
+        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4479,7 +4479,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>109.0410000000002</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4490,7 +4490,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>-168.2930000000001</v>
+        <v>2500.001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4523,7 +4523,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4534,7 +4534,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4545,7 +4545,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4644,7 +4644,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4655,7 +4655,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4666,7 +4666,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>5456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4677,7 +4677,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>6068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4699,7 +4699,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4710,7 +4710,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-359.8330000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4721,7 +4721,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>16494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4732,7 +4732,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>1233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4743,7 +4743,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>-3153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -4754,7 +4754,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -4765,7 +4765,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -4776,7 +4776,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>4761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -4787,7 +4787,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>1123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -4798,7 +4798,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>-227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4809,7 +4809,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4820,7 +4820,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>173.2569999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4831,7 +4831,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>62206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4842,7 +4842,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>-4667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4853,7 +4853,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>4451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4864,7 +4864,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>-4794</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4875,7 +4875,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>1153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4886,7 +4886,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>57316</v>
+        <v>27.156</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>15061</v>
+        <v>36.906</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4908,7 +4908,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>-14549</v>
+        <v>355.882</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4919,7 +4919,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>-1480</v>
+        <v>294.348</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4930,7 +4930,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>9782</v>
+        <v>-44.29100000000005</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4941,7 +4941,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>26446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4952,7 +4952,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>-3105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4963,7 +4963,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>2998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4974,7 +4974,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>-3250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4985,7 +4985,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>3329</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5020,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>41835.651</v>
+        <v>3.229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>-4740.512999999999</v>
+        <v>17.789</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>1268.279999999999</v>
+        <v>67.795</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>-1206.551999999996</v>
+        <v>848.285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>3298.479999999996</v>
+        <v>764.9949999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>-172</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>558.66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>6.399999999999977</v>
+        <v>2496.3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>-16.39999999999998</v>
+        <v>1190.7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>2631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>1666.428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>733.9130000000005</v>
+        <v>14.865</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>623.4449999999997</v>
+        <v>1368.409</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-2725.287</v>
+        <v>59.19400000000019</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>6452.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>583.6000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>2089.703</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>-2735.566999999999</v>
+        <v>57.14400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>-564.5360000000001</v>
+        <v>25.83599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>1758</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>621.9099999999999</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>409.5640000000003</v>
+        <v>615.288</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>-994.6670000000001</v>
+        <v>1648.144</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>213.222</v>
+        <v>47.72800000000007</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>-2.358000000000001</v>
+        <v>4.027</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5328,7 +5328,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>-2.611999999999998</v>
+        <v>598.2349999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5339,7 +5339,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>-0.8130000000000024</v>
+        <v>359.0070000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5350,7 +5350,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5361,7 +5361,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5372,7 +5372,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>4.881</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5383,7 +5383,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>-0.2809999999999988</v>
+        <v>5.856000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5394,7 +5394,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>-7.600000000000001</v>
+        <v>67.55199999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5405,7 +5405,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>14660</v>
+        <v>1.576</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5416,7 +5416,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>-876</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5427,7 +5427,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>-862.0059999999994</v>
+        <v>2.108</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5438,7 +5438,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>3846.704</v>
+        <v>6.572</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5449,7 +5449,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>-4355.991</v>
+        <v>135.939</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5460,7 +5460,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>66363.249</v>
+        <v>5.223</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5471,7 +5471,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>-14883.372</v>
+        <v>5.278</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5482,7 +5482,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>11233.74</v>
+        <v>609.499</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5493,7 +5493,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>-7157.345000000001</v>
+        <v>7133.737</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5504,7 +5504,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>1357.619000000006</v>
+        <v>4471.447000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5515,7 +5515,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>21732</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5526,7 +5526,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>-2094</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5537,7 +5537,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>1315</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5548,7 +5548,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-1977</v>
+        <v>26997</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5559,7 +5559,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>755</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5570,7 +5570,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>4111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5581,7 +5581,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>1499.497</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5592,7 +5592,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>1864.255999999999</v>
+        <v>156.795</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5603,7 +5603,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>-1376.558999999999</v>
+        <v>3741.888</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5614,7 +5614,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>-2120.579000000001</v>
+        <v>528.8740000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5625,7 +5625,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>24.15299999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5647,7 +5647,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>-13.76900000000001</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5658,7 +5658,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>45.32700000000003</v>
+        <v>140.15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5669,7 +5669,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>-14.71100000000001</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5680,7 +5680,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5691,7 +5691,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>-215.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5702,7 +5702,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>-32.029</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5713,7 +5713,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>207.259</v>
+        <v>2.932</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5724,7 +5724,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>80.09399999999994</v>
+        <v>17.942</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5735,7 +5735,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>44199.446</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>-8132.713000000003</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5757,7 +5757,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>15050.031</v>
+        <v>1874.661</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5768,7 +5768,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>-5579.440000000002</v>
+        <v>21036.531</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5779,7 +5779,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>781.2090000000026</v>
+        <v>746.7080000000024</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5790,7 +5790,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>2819.157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5801,7 +5801,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>506.1320000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5812,7 +5812,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>195.2169999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5823,7 +5823,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>-1660.151</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5834,7 +5834,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>247.1990000000001</v>
+        <v>2.902</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5845,7 +5845,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5867,7 +5867,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>89</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5878,7 +5878,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>-191</v>
+        <v>72.90900000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5889,7 +5889,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>-3.600000000000023</v>
+        <v>18.09999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5900,7 +5900,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>123.504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5911,7 +5911,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>-30.56500000000001</v>
+        <v>17.698</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5922,7 +5922,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>14.72200000000001</v>
+        <v>3.449999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5933,7 +5933,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>-8.408000000000001</v>
+        <v>82.57300000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5944,7 +5944,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>7.662000000000006</v>
+        <v>26.66399999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5955,7 +5955,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>142.43</v>
+        <v>7.684</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>-54.43000000000001</v>
+        <v>27.742</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5977,7 +5977,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>17</v>
+        <v>20.446</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5988,7 +5988,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>-12.301</v>
+        <v>1052.647</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5999,7 +5999,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>-18.517</v>
+        <v>4226.936</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6010,7 +6010,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>141818</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6021,7 +6021,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>-6130</v>
+        <v>0.8900000000000006</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6032,7 +6032,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>-18949</v>
+        <v>1.869</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6043,7 +6043,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>20563</v>
+        <v>5.250999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6054,7 +6054,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-11781.933</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>2106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6076,7 +6076,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>95.11499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6087,7 +6087,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>718.8270000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6098,7 +6098,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>-1087.74</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6109,7 +6109,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>126.2139999999999</v>
+        <v>654.034</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6120,7 +6120,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>11323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6131,7 +6131,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>-6592.337</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6142,7 +6142,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>11417.234</v>
+        <v>208.33</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6153,7 +6153,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>-7487.391000000001</v>
+        <v>584.8249999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6164,7 +6164,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>157.2080000000005</v>
+        <v>546.097</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>14778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -6186,7 +6186,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>5428.852999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -6197,7 +6197,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>-323.969000000001</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6208,7 +6208,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>-3250.806999999997</v>
+        <v>1981.964</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6219,7 +6219,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-1051.455000000002</v>
+        <v>-204.385</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6230,7 +6230,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>4615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -6241,7 +6241,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6252,7 +6252,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>617</v>
+        <v>16.942</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -6263,7 +6263,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>-1389</v>
+        <v>489.058</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -6274,7 +6274,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>490</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6285,7 +6285,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>3834.721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -6296,7 +6296,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>-373.7559999999999</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -6307,7 +6307,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>1057.272</v>
+        <v>12.826</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -6318,7 +6318,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>-711.1330000000003</v>
+        <v>261.371</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -6329,7 +6329,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>672.2919999999999</v>
+        <v>28.80699999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6340,7 +6340,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>28256</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6351,7 +6351,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>-9863</v>
+        <v>33.979</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6362,7 +6362,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>23911</v>
+        <v>6377.021</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6373,7 +6373,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>-14164</v>
+        <v>1841.217000000001</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6384,7 +6384,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>-3494</v>
+        <v>1153.782999999999</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>78584</v>
+        <v>1.418</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6406,7 +6406,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>-5781</v>
+        <v>0.7089999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6417,7 +6417,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>-6405.212</v>
+        <v>6.473</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6428,7 +6428,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>8914.694000000003</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6439,7 +6439,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-9941.482000000004</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6450,7 +6450,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>36835</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6461,7 +6461,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>-5609</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6472,7 +6472,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>4836</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6483,7 +6483,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>2196</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>-218</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -6529,7 +6529,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>66.754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6540,7 +6540,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>1264.523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6551,7 +6551,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>732.6370000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6562,7 +6562,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>2776.407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6573,7 +6573,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>2637.042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6584,7 +6584,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>48157</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>211</v>
+        <v>-562</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6606,7 +6606,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>875</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6617,7 +6617,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>1859</v>
+        <v>-21841</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6628,7 +6628,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>2119.6</v>
+        <v>17420.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6639,7 +6639,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>18178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6650,7 +6650,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>4.587</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6661,7 +6661,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>676.782</v>
+        <v>-3404</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6672,7 +6672,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>770.1419999999999</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6683,7 +6683,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-134.5229999999999</v>
+        <v>1172.288</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6705,7 +6705,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6716,7 +6716,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>129.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6727,7 +6727,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>657.1949999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6738,7 +6738,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>671.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6749,7 +6749,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.885</v>
+        <v>13590</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6760,7 +6760,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>20.395</v>
+        <v>11138</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6771,7 +6771,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>314.213</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6782,7 +6782,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>237.119</v>
+        <v>-1157</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6793,7 +6793,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>127.402</v>
+        <v>3405.208999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6804,7 +6804,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>4152.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6815,7 +6815,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>1569.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6826,7 +6826,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>305.107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6837,7 +6837,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>3273.882000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6848,7 +6848,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>651.8579999999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6870,7 +6870,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -6881,7 +6881,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>222.992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -6892,7 +6892,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>438.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -6903,7 +6903,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -6914,7 +6914,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>78</v>
+        <v>22479</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6925,7 +6925,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>91.94200000000001</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6936,7 +6936,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>85.375</v>
+        <v>-471</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6947,7 +6947,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>1998.042</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6958,7 +6958,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>3627.668</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6969,7 +6969,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>48.16</v>
+        <v>415162</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6980,7 +6980,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>914.4100000000001</v>
+        <v>36367</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6991,7 +6991,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>8982.42</v>
+        <v>-23008</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7002,7 +7002,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>11475.612</v>
+        <v>8906.808000000019</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7013,7 +7013,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>13301.082</v>
+        <v>-38416.22100000002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7024,7 +7024,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>9352</v>
+        <v>169606</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7035,7 +7035,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>18422</v>
+        <v>-6551</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7046,7 +7046,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>9845</v>
+        <v>-22499</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7057,7 +7057,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>33303</v>
+        <v>-48770</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7068,7 +7068,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>30228</v>
+        <v>-16715</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7079,7 +7079,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7090,7 +7090,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>815.452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7101,7 +7101,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>1447.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7112,7 +7112,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>1907.082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7123,7 +7123,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>2645.328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7134,7 +7134,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>14180</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7145,7 +7145,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>10.095</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7156,7 +7156,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>523.697</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7167,7 +7167,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>159.5309999999999</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7178,7 +7178,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>35.67700000000002</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7189,7 +7189,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7200,7 +7200,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>787.9100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7211,7 +7211,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>1702.749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7222,7 +7222,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>3757.338999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7233,7 +7233,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>3446.487000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7244,7 +7244,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7255,7 +7255,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1780.399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7266,7 +7266,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>6782.519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7277,7 +7277,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>5717.964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7288,7 +7288,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>5358.160000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7299,7 +7299,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>4.417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7310,7 +7310,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>42.437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7321,7 +7321,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>2.203000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7332,7 +7332,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>98.07799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7343,7 +7343,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>6.864000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7354,7 +7354,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7365,7 +7365,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7376,7 +7376,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>222</v>
+        <v>-10337</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7387,7 +7387,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7398,7 +7398,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>689.4000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7409,7 +7409,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>24.743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7420,7 +7420,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>27.508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7431,7 +7431,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>2.832000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7442,7 +7442,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>46.765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7453,7 +7453,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>179.435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -7464,7 +7464,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>829.03</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>1237.625</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>1247.482</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>3105.737</v>
+        <v>109.0410000000002</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7508,7 +7508,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>1458.052000000001</v>
+        <v>-168.2930000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7519,7 +7519,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -7530,7 +7530,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -7541,7 +7541,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -7552,7 +7552,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>1634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -7563,7 +7563,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>3023.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -7574,7 +7574,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -7585,7 +7585,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>130.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -7596,7 +7596,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>1528.869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -7607,7 +7607,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>9194.026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -7618,7 +7618,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>4248.394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -7629,7 +7629,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -7640,7 +7640,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>1605.263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -7651,7 +7651,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>7408.309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -7662,7 +7662,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>2421.366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -7673,7 +7673,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>2064.011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -7684,7 +7684,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -7695,7 +7695,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0.227</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -7706,7 +7706,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>306.121</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -7717,7 +7717,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>6756.582</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -7728,7 +7728,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-290.1210000000001</v>
+        <v>-359.8330000000005</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -7739,7 +7739,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>16494</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -7750,7 +7750,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -7761,7 +7761,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>-3153</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -7772,7 +7772,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -7783,7 +7783,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -7794,7 +7794,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -7805,7 +7805,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -7816,7 +7816,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>-227</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -7827,7 +7827,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>6.028</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -7838,7 +7838,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0.1220000000000008</v>
+        <v>173.2569999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -7849,7 +7849,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>4727</v>
+        <v>62206</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -7860,7 +7860,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>16449</v>
+        <v>-4667</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -7871,7 +7871,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>23095</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7882,7 +7882,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>5043</v>
+        <v>-4794</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -7893,7 +7893,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>6322</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -7904,7 +7904,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>429.844</v>
+        <v>57316</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -7915,7 +7915,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>441.094</v>
+        <v>15061</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -7926,7 +7926,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>2196.118</v>
+        <v>-14549</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -7937,7 +7937,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>12540.652</v>
+        <v>-1480</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -7948,7 +7948,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>3569.290999999999</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -7959,7 +7959,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>26446</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7970,7 +7970,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>-3105</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -7981,7 +7981,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>29</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -7992,7 +7992,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>73</v>
+        <v>-3250</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -8003,7 +8003,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>36</v>
+        <v>3329</v>
       </c>
     </row>
   </sheetData>
@@ -8038,7 +8038,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>66.754</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8049,7 +8049,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1264.523</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8060,7 +8060,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>732.6370000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8071,7 +8071,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2776.407</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8082,7 +8082,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2637.042</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8093,7 +8093,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8104,7 +8104,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8115,7 +8115,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8126,7 +8126,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8137,7 +8137,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2119.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8159,7 +8159,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4.587</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8170,7 +8170,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>676.782</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8181,7 +8181,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>770.1419999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8192,7 +8192,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-134.5229999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8214,7 +8214,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8225,7 +8225,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>129.1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8236,7 +8236,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>657.1949999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8247,7 +8247,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>671.005</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8258,7 +8258,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8269,7 +8269,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>20.395</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8280,7 +8280,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>314.213</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8291,7 +8291,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>237.119</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8302,7 +8302,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>127.402</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8313,7 +8313,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>4152.272</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8324,7 +8324,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1569.145</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8335,7 +8335,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>305.107</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8346,7 +8346,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3273.882000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8357,7 +8357,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>651.8579999999984</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8379,7 +8379,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8390,7 +8390,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>222.992</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8401,7 +8401,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>438.008</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8412,7 +8412,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8423,7 +8423,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8434,7 +8434,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>91.94200000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8445,7 +8445,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>85.375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8456,7 +8456,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1998.042</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8467,7 +8467,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>3627.668</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8478,7 +8478,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8489,7 +8489,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>914.4100000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8500,7 +8500,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>8982.42</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8511,7 +8511,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>11475.612</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8522,7 +8522,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>13301.082</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8533,7 +8533,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>9352</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8544,7 +8544,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>18422</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8555,7 +8555,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>9845</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8566,7 +8566,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>33303</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8577,7 +8577,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>30228</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8588,7 +8588,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8599,7 +8599,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>815.452</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8610,7 +8610,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1447.485</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8621,7 +8621,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1907.082</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8632,7 +8632,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2645.328</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8654,7 +8654,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>10.095</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8665,7 +8665,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>523.697</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8676,7 +8676,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>159.5309999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8687,7 +8687,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>35.67700000000002</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8698,7 +8698,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8709,7 +8709,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>787.9100000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8720,7 +8720,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1702.749</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8731,7 +8731,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>3757.338999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8742,7 +8742,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>3446.487000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8753,7 +8753,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8764,7 +8764,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1780.399</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8775,7 +8775,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>9.475</v>
+        <v>6782.519</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8786,7 +8786,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>5717.964</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8797,7 +8797,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5358.160000000002</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8808,7 +8808,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>4.417</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8819,7 +8819,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>42.437</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8830,7 +8830,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2.203000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8841,7 +8841,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>98.07799999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8852,7 +8852,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>6.864000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8874,7 +8874,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8885,7 +8885,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8896,7 +8896,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8907,7 +8907,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>689.4000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8918,7 +8918,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>24.743</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8929,7 +8929,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>27.508</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8940,7 +8940,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2.832000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8951,7 +8951,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>46.765</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8962,7 +8962,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>179.435</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8973,7 +8973,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>829.03</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8984,7 +8984,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1237.625</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8995,7 +8995,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1247.482</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -9006,7 +9006,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>3105.737</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -9017,7 +9017,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1458.052000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -9028,7 +9028,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9039,7 +9039,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -9050,7 +9050,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9061,7 +9061,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9072,7 +9072,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>3023.25</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -9083,7 +9083,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9094,7 +9094,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>130.47</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9105,7 +9105,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1528.869</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9116,7 +9116,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>9194.026</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9127,7 +9127,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>4248.394</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9138,7 +9138,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9149,7 +9149,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1605.263</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9160,7 +9160,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>7408.309</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -9171,7 +9171,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>2421.366</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9182,7 +9182,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>17.03</v>
+        <v>2064.011</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9204,7 +9204,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -9215,7 +9215,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>306.121</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9226,7 +9226,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>6756.582</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9237,7 +9237,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>-290.1210000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -9259,7 +9259,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9336,7 +9336,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>6.028</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -9347,7 +9347,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.1220000000000008</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -9358,7 +9358,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9369,7 +9369,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>16449</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9380,7 +9380,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>761.2</v>
+        <v>23095</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9391,7 +9391,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>4832.037</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9402,7 +9402,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>89.76299999999992</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9413,7 +9413,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>429.844</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -9424,7 +9424,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>441.094</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9435,7 +9435,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>2196.118</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9446,7 +9446,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>12540.652</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9457,7 +9457,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>3569.290999999999</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9468,7 +9468,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9479,7 +9479,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9490,7 +9490,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9501,7 +9501,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9512,7 +9512,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -9547,7 +9547,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>1382.701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9558,7 +9558,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>960.1410000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9569,7 +9569,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>852.163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9580,7 +9580,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>239.6669999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9591,7 +9591,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>-56.62199999999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9602,7 +9602,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>1239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9613,7 +9613,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9624,7 +9624,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9635,7 +9635,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>-256.9000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9646,7 +9646,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>-219.8999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9657,7 +9657,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9668,7 +9668,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>112.468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9679,7 +9679,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>228.7069999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9690,7 +9690,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>-169.419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9701,7 +9701,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-38.50999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9712,7 +9712,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>18.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9723,7 +9723,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>85.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9734,7 +9734,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>2.099999999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9745,7 +9745,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>58.90000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9756,7 +9756,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>-58.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9767,7 +9767,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9778,7 +9778,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>92.09199999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9789,7 +9789,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>-55.98699999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9800,7 +9800,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>684.857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9811,7 +9811,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>-109.3050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -9987,7 +9987,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>4770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -9998,7 +9998,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -10009,7 +10009,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -10020,7 +10020,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>145.0910000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -10031,7 +10031,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>-298.3240000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -10042,7 +10042,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4230</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -10053,7 +10053,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>2549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -10064,7 +10064,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>-379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10075,7 +10075,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10086,7 +10086,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10119,7 +10119,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>23.479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -10130,7 +10130,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>28.647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -10141,7 +10141,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>21.154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -10207,7 +10207,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -10218,7 +10218,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>39.91000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -10229,7 +10229,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>-167.048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -10240,7 +10240,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>111.246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -10251,7 +10251,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>-42.78900000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -10262,7 +10262,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>6700.189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -10273,7 +10273,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>159.9780000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -10284,7 +10284,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>-3570.268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -10295,7 +10295,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>-1857.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -10306,7 +10306,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>402.8389999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -10372,7 +10372,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -10383,7 +10383,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -10394,7 +10394,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -10405,7 +10405,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>-80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -10416,7 +10416,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>-72.70000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -10427,7 +10427,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>747.126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -10438,7 +10438,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>37.36000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -10449,7 +10449,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>575.842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -10460,7 +10460,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>71.04199999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -10471,7 +10471,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>-588.9939999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -10537,7 +10537,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -10548,7 +10548,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -10559,7 +10559,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>-351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -10570,7 +10570,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -10581,7 +10581,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -10592,7 +10592,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>2010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -10603,7 +10603,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>-433.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -10614,7 +10614,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>-1008.573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -10625,7 +10625,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>34.79700000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -10636,7 +10636,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>103.472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -10647,7 +10647,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -10658,7 +10658,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -10669,7 +10669,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -10680,7 +10680,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>740</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -10691,7 +10691,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>285.8009999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -10724,7 +10724,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>360.098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -10735,7 +10735,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>14.37799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -10746,7 +10746,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>50.60300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -10757,7 +10757,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -10768,7 +10768,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>-257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -10779,7 +10779,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -10790,7 +10790,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>-123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -10801,7 +10801,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>-56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -10834,7 +10834,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>184.718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -10845,7 +10845,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>98.35300000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -10856,7 +10856,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>-79.92800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -10867,7 +10867,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>3551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -10878,7 +10878,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>1081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -10889,7 +10889,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>-1425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -10900,7 +10900,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -10911,7 +10911,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -10922,7 +10922,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -10933,7 +10933,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>36.129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -10944,7 +10944,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>31.871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -10955,7 +10955,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>24.265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -10966,7 +10966,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-105.265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -10977,7 +10977,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>1395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -10988,7 +10988,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -10999,7 +10999,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>-97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -11010,7 +11010,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>-140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -11021,7 +11021,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>1299</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11056,7 +11056,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>3.229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11067,7 +11067,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>17.789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11078,7 +11078,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>67.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11089,7 +11089,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>848.285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11100,7 +11100,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>764.9949999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11122,7 +11122,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>1.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11133,7 +11133,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>558.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11144,7 +11144,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2496.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11155,7 +11155,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>1190.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11188,7 +11188,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>14.865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11199,7 +11199,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>1368.409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11210,7 +11210,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>59.19400000000019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11243,7 +11243,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11254,7 +11254,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>57.14400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11265,7 +11265,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>25.83599999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11276,7 +11276,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11287,7 +11287,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0.364</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11298,7 +11298,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>615.288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11309,7 +11309,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>1648.144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11320,7 +11320,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>47.72800000000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11331,7 +11331,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11342,7 +11342,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -11353,7 +11353,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>4.027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11364,7 +11364,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>598.2349999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -11375,7 +11375,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>359.0070000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -11408,7 +11408,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0.092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -11419,7 +11419,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>5.856000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -11430,7 +11430,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>67.55199999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -11441,7 +11441,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>1.576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -11452,7 +11452,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>1.055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -11463,7 +11463,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>2.108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -11474,7 +11474,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>6.572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -11485,7 +11485,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>135.939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -11496,7 +11496,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>5.223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -11507,7 +11507,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>5.278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -11518,7 +11518,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>609.499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -11529,7 +11529,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>7133.737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -11540,7 +11540,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>4471.447000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -11551,7 +11551,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -11562,7 +11562,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>1222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -11573,7 +11573,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>10447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -11584,7 +11584,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>26997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -11595,7 +11595,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>7666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -11617,7 +11617,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0.953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -11628,7 +11628,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>156.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -11639,7 +11639,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>3741.888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -11650,7 +11650,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>528.8740000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -11683,7 +11683,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -11694,7 +11694,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>140.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -11705,7 +11705,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>1356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -11738,7 +11738,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0.476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -11749,7 +11749,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>2.932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -11760,7 +11760,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>17.942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -11771,7 +11771,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -11782,7 +11782,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -11793,7 +11793,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>1874.661</v>
+        <v>9.475</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -11804,7 +11804,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>21036.531</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -11815,7 +11815,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>746.7080000000024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -11859,7 +11859,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0.235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -11870,7 +11870,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>2.902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -11903,7 +11903,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0.091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -11914,7 +11914,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>72.90900000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -11925,7 +11925,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>18.09999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -11947,7 +11947,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>17.698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -11958,7 +11958,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>3.449999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -11969,7 +11969,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>82.57300000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -11980,7 +11980,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>26.66399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -11991,7 +11991,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>7.684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -12002,7 +12002,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>27.742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -12013,7 +12013,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>20.446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -12024,7 +12024,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1052.647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -12035,7 +12035,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>4226.936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -12046,7 +12046,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>5.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -12057,7 +12057,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0.8900000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -12068,7 +12068,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>1.869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -12079,7 +12079,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>5.250999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -12090,7 +12090,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>91.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -12134,7 +12134,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>56.639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -12145,7 +12145,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>654.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -12156,7 +12156,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -12167,7 +12167,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -12178,7 +12178,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>208.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -12189,7 +12189,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>584.8249999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -12200,7 +12200,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>546.097</v>
+        <v>17.03</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -12233,7 +12233,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0.036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -12244,7 +12244,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1981.964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -12255,7 +12255,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-204.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -12288,7 +12288,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>16.942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -12299,7 +12299,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>489.058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -12310,7 +12310,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -12332,7 +12332,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0.035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -12343,7 +12343,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>12.826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -12354,7 +12354,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>261.371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -12365,7 +12365,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>28.80699999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -12376,7 +12376,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -12387,7 +12387,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>33.979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -12398,7 +12398,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>6377.021</v>
+        <v>761.2</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -12409,7 +12409,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>1841.217000000001</v>
+        <v>4832.037</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -12420,7 +12420,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>1153.782999999999</v>
+        <v>89.76299999999992</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -12431,7 +12431,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>1.418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -12442,7 +12442,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0.7089999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -12453,7 +12453,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>6.473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -12464,7 +12464,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>88.40000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -12475,7 +12475,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -12486,7 +12486,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -12497,7 +12497,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -12508,7 +12508,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -12519,7 +12519,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>1025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -12530,7 +12530,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>1059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/irena_elecgen_summary.xlsx
+++ b/irena_elecgen_summary.xlsx
@@ -7,13 +7,13 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Pumped storage" sheetId="1" r:id="rId1"/>
-    <sheet name="Renewable hydropower" sheetId="2" r:id="rId2"/>
-    <sheet name="Offshore wind energy" sheetId="3" r:id="rId3"/>
-    <sheet name="Solar photovoltaic" sheetId="4" r:id="rId4"/>
-    <sheet name="Nuclear" sheetId="5" r:id="rId5"/>
-    <sheet name="Onshore wind energy" sheetId="6" r:id="rId6"/>
-    <sheet name="Mixed Hydro Plants" sheetId="7" r:id="rId7"/>
+    <sheet name="Solar photovoltaic" sheetId="1" r:id="rId1"/>
+    <sheet name="Nuclear" sheetId="2" r:id="rId2"/>
+    <sheet name="Onshore wind energy" sheetId="3" r:id="rId3"/>
+    <sheet name="Renewable hydropower" sheetId="4" r:id="rId4"/>
+    <sheet name="Mixed Hydro Plants" sheetId="5" r:id="rId5"/>
+    <sheet name="Pumped storage" sheetId="6" r:id="rId6"/>
+    <sheet name="Offshore wind energy" sheetId="7" r:id="rId7"/>
     <sheet name="Concentrated solar power" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -493,7 +493,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>1382.701</v>
+        <v>3.229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -504,7 +504,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>960.1410000000001</v>
+        <v>17.789</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -515,7 +515,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>852.163</v>
+        <v>67.795</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -526,7 +526,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>239.6669999999999</v>
+        <v>848.285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -537,7 +537,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>-56.62199999999984</v>
+        <v>764.9949999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -548,7 +548,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>1239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -559,7 +559,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>77</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -570,7 +570,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>558.66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -581,7 +581,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>-256.9000000000001</v>
+        <v>2496.3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -592,7 +592,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>-219.8999999999999</v>
+        <v>1190.7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -603,7 +603,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -614,7 +614,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>112.468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -625,7 +625,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>228.7069999999999</v>
+        <v>14.865</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -636,7 +636,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>-169.419</v>
+        <v>1368.409</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -647,7 +647,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-38.50999999999999</v>
+        <v>59.19400000000019</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -658,7 +658,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>18.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -669,7 +669,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>85.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -680,7 +680,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>2.099999999999994</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -691,7 +691,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>58.90000000000001</v>
+        <v>57.14400000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -702,7 +702,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>-58.5</v>
+        <v>25.83599999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -713,7 +713,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>555</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -724,7 +724,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>92.09199999999998</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -735,7 +735,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>-55.98699999999997</v>
+        <v>615.288</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -746,7 +746,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>684.857</v>
+        <v>1648.144</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -757,7 +757,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>-109.3050000000001</v>
+        <v>47.72800000000007</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -768,7 +768,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -779,7 +779,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -790,7 +790,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4.027</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -801,7 +801,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>598.2349999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -812,7 +812,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>359.0070000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -845,7 +845,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -856,7 +856,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>5.856000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -867,7 +867,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>67.55199999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -878,7 +878,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1.576</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -889,7 +889,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -900,7 +900,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2.108</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -911,7 +911,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>6.572</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -922,7 +922,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>135.939</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -933,7 +933,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>4770</v>
+        <v>5.223</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -944,7 +944,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>82</v>
+        <v>5.278</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -955,7 +955,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>-40</v>
+        <v>609.499</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -966,7 +966,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>145.0910000000003</v>
+        <v>7133.737</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -977,7 +977,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>-298.3240000000005</v>
+        <v>4471.447000000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -988,7 +988,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>4230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -999,7 +999,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>2549</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1010,7 +1010,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>-379</v>
+        <v>10447</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1021,7 +1021,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-479</v>
+        <v>26997</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1032,7 +1032,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>7666</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1054,7 +1054,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1065,7 +1065,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>23.479</v>
+        <v>156.795</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1076,7 +1076,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>28.647</v>
+        <v>3741.888</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>21.154</v>
+        <v>528.8740000000003</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1120,7 +1120,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1131,7 +1131,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>140.15</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1142,7 +1142,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1153,7 +1153,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1164,7 +1164,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>39.91000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1175,7 +1175,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>-167.048</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1186,7 +1186,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>111.246</v>
+        <v>2.932</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1197,7 +1197,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>-42.78900000000002</v>
+        <v>17.942</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1208,7 +1208,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>6700.189</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1219,7 +1219,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>159.9780000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1230,7 +1230,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>-3570.268</v>
+        <v>1874.661</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1241,7 +1241,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>-1857.755</v>
+        <v>21036.531</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1252,7 +1252,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>402.8389999999999</v>
+        <v>746.7080000000024</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1296,7 +1296,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1307,7 +1307,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>2.902</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1318,7 +1318,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1329,7 +1329,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1340,7 +1340,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>386</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>-80</v>
+        <v>72.90900000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1362,7 +1362,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>-72.70000000000005</v>
+        <v>18.09999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1373,7 +1373,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>747.126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1384,7 +1384,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>37.36000000000001</v>
+        <v>17.698</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1395,7 +1395,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>575.842</v>
+        <v>3.449999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1406,7 +1406,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>71.04199999999992</v>
+        <v>82.57300000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1417,7 +1417,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>-588.9939999999999</v>
+        <v>26.66399999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1428,7 +1428,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>7.684</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1439,7 +1439,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>27.742</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1450,7 +1450,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>20.446</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1461,7 +1461,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1052.647</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1472,7 +1472,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>4226.936</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1483,7 +1483,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>471</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1494,7 +1494,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>293</v>
+        <v>0.8900000000000006</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1505,7 +1505,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>-351</v>
+        <v>1.869</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1516,7 +1516,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>735</v>
+        <v>5.250999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1527,7 +1527,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-264</v>
+        <v>91.67</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1538,7 +1538,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>2010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1549,7 +1549,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>-433.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1560,7 +1560,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>-1008.573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1571,7 +1571,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>34.79700000000003</v>
+        <v>56.639</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1582,7 +1582,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>103.472</v>
+        <v>654.034</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1593,7 +1593,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1604,7 +1604,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1615,7 +1615,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>12</v>
+        <v>208.33</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1626,7 +1626,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>740</v>
+        <v>584.8249999999999</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1637,7 +1637,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>285.8009999999999</v>
+        <v>546.097</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1670,7 +1670,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>360.098</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1681,7 +1681,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>14.37799999999999</v>
+        <v>1981.964</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1692,7 +1692,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>50.60300000000001</v>
+        <v>-204.385</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1703,7 +1703,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1714,7 +1714,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>-257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1725,7 +1725,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>291</v>
+        <v>16.942</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1736,7 +1736,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>-123</v>
+        <v>489.058</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1747,7 +1747,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>-56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1769,7 +1769,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1780,7 +1780,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>184.718</v>
+        <v>12.826</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1791,7 +1791,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>98.35300000000004</v>
+        <v>261.371</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1802,7 +1802,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>-79.92800000000003</v>
+        <v>28.80699999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1813,7 +1813,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>3551</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1824,7 +1824,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>1081</v>
+        <v>33.979</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1835,7 +1835,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>-1425</v>
+        <v>6377.021</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1846,7 +1846,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>21</v>
+        <v>1841.217000000001</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -1857,7 +1857,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>-1000</v>
+        <v>1153.782999999999</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -1868,7 +1868,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>35</v>
+        <v>1.418</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1879,7 +1879,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>36.129</v>
+        <v>0.7089999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -1890,7 +1890,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>31.871</v>
+        <v>6.473</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -1901,7 +1901,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>24.265</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1912,7 +1912,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-105.265</v>
+        <v>582</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1923,7 +1923,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>1395</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1934,7 +1934,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>465</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1945,7 +1945,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>-97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1956,7 +1956,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>-140</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -1967,7 +1967,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>1299</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -2002,7 +2002,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>41835.651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2013,7 +2013,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>-4740.512999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2024,7 +2024,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>1268.279999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2035,7 +2035,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>-1206.551999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2046,7 +2046,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>3298.479999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2057,7 +2057,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>460</v>
+        <v>48157</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2068,7 +2068,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>-172</v>
+        <v>-562</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2079,7 +2079,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>6.399999999999977</v>
+        <v>-21841</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2101,7 +2101,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>-16.39999999999998</v>
+        <v>17420.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2112,7 +2112,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>2631</v>
+        <v>18178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2123,7 +2123,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>1666.428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2134,7 +2134,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>733.9130000000005</v>
+        <v>-3404</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2145,7 +2145,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>623.4449999999997</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2156,7 +2156,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-2725.287</v>
+        <v>1172.288</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2167,7 +2167,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>6452.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2178,7 +2178,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>583.6000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2189,7 +2189,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>2089.703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2200,7 +2200,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>-2735.566999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2211,7 +2211,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>-564.5360000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2222,7 +2222,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>1758</v>
+        <v>13590</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2233,7 +2233,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>621.9099999999999</v>
+        <v>11138</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2244,7 +2244,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>409.5640000000003</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2255,7 +2255,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>-994.6670000000001</v>
+        <v>-1157</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2266,7 +2266,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>213.222</v>
+        <v>3405.208999999999</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2277,7 +2277,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2288,7 +2288,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2299,7 +2299,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>-2.358000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2310,7 +2310,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>-2.611999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2321,7 +2321,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>-0.8130000000000024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2332,7 +2332,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2343,7 +2343,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2354,7 +2354,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>4.881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2365,7 +2365,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>-0.2809999999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2376,7 +2376,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>-7.600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2387,7 +2387,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>14660</v>
+        <v>22479</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2398,7 +2398,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>-876</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2409,7 +2409,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>-862.0059999999994</v>
+        <v>-471</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2420,7 +2420,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>3846.704</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2431,7 +2431,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>-4355.991</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2442,7 +2442,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>66363.249</v>
+        <v>415162</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2453,7 +2453,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>-14883.372</v>
+        <v>36367</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2464,7 +2464,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>11233.74</v>
+        <v>-23008</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2475,7 +2475,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>-7157.345000000001</v>
+        <v>8906.808000000019</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2486,7 +2486,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>1357.619000000006</v>
+        <v>-38416.22100000002</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2497,7 +2497,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>21732</v>
+        <v>169606</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2508,7 +2508,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>-2094</v>
+        <v>-6551</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2519,7 +2519,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>1315</v>
+        <v>-22499</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2530,7 +2530,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-1977</v>
+        <v>-48770</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2541,7 +2541,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>755</v>
+        <v>-16715</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2552,7 +2552,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>4111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2563,7 +2563,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>1499.497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2574,7 +2574,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>1864.255999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2585,7 +2585,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>-1376.558999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2596,7 +2596,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>-2120.579000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>178</v>
+        <v>14180</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>24.15299999999999</v>
+        <v>-346</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>-13.76900000000001</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2640,7 +2640,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>45.32700000000003</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2651,7 +2651,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>-14.71100000000001</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2673,7 +2673,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>-215.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2684,7 +2684,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>-32.029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2695,7 +2695,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>207.259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2706,7 +2706,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>80.09399999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2717,7 +2717,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>44199.446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2728,7 +2728,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>-8132.713000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>15050.031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2750,7 +2750,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>-5579.440000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2761,7 +2761,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>781.2090000000026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2772,7 +2772,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>2819.157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2783,7 +2783,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>506.1320000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2794,7 +2794,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>195.2169999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2805,7 +2805,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>-1660.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2816,7 +2816,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>247.1990000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2827,7 +2827,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>340</v>
+        <v>8419</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>111</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2849,7 +2849,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>89</v>
+        <v>-10337</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>-191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>-3.600000000000023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>123.504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2893,7 +2893,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>-30.56500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2904,7 +2904,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>14.72200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2915,7 +2915,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>-8.408000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2926,7 +2926,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>7.662000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2937,7 +2937,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>142.43</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>-54.43000000000001</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2959,7 +2959,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>17</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2970,7 +2970,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>-12.301</v>
+        <v>109.0410000000002</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>-18.517</v>
+        <v>-168.2930000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2992,7 +2992,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>141818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3003,7 +3003,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>-6130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3014,7 +3014,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>-18949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3025,7 +3025,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>20563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3036,7 +3036,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-11781.933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3047,7 +3047,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>2106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3058,7 +3058,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>95.11499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3069,7 +3069,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>718.8270000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3080,7 +3080,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>-1087.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3091,7 +3091,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>126.2139999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3102,7 +3102,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>11323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3113,7 +3113,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>-6592.337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3124,7 +3124,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>11417.234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3135,7 +3135,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>-7487.391000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3146,7 +3146,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>157.2080000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3157,7 +3157,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>14778</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3168,7 +3168,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>5428.852999999999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3179,7 +3179,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>-323.969000000001</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3190,7 +3190,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>-3250.806999999997</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3201,7 +3201,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-1051.455000000002</v>
+        <v>-359.8330000000005</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3212,7 +3212,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>4615</v>
+        <v>16494</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3223,7 +3223,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>23</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3234,7 +3234,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>617</v>
+        <v>-3153</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -3245,7 +3245,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>-1389</v>
+        <v>572</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3256,7 +3256,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>490</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3267,7 +3267,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>3834.721</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3278,7 +3278,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>-373.7559999999999</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3289,7 +3289,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>1057.272</v>
+        <v>-227</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3300,7 +3300,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>-711.1330000000003</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3311,7 +3311,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>672.2919999999999</v>
+        <v>173.2569999999996</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3322,7 +3322,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>28256</v>
+        <v>62206</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -3333,7 +3333,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>-9863</v>
+        <v>-4667</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3344,7 +3344,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>23911</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -3355,7 +3355,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>-14164</v>
+        <v>-4794</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3366,7 +3366,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>-3494</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3377,7 +3377,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>78584</v>
+        <v>57316</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3388,7 +3388,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>-5781</v>
+        <v>15061</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3399,7 +3399,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>-6405.212</v>
+        <v>-14549</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3410,7 +3410,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>8914.694000000003</v>
+        <v>-1480</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3421,7 +3421,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-9941.482000000004</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3432,7 +3432,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>36835</v>
+        <v>26446</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3443,7 +3443,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>-5609</v>
+        <v>-3105</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3454,7 +3454,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>4836</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3465,7 +3465,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>2196</v>
+        <v>-3250</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3476,7 +3476,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>-218</v>
+        <v>3329</v>
       </c>
     </row>
   </sheetData>
@@ -3511,7 +3511,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>66.754</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3522,7 +3522,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1264.523</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3533,7 +3533,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>732.6370000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3544,7 +3544,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2776.407</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3555,7 +3555,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2637.042</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3566,7 +3566,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3577,7 +3577,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3588,7 +3588,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>190</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3599,7 +3599,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2423</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3610,7 +3610,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>2032</v>
+        <v>2119.6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3632,7 +3632,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>4.587</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3643,7 +3643,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>676.782</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3654,7 +3654,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>770.1419999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3665,7 +3665,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-134.5229999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3687,7 +3687,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3698,7 +3698,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>129.1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3709,7 +3709,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>657.1949999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3720,7 +3720,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>671.005</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3731,7 +3731,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3742,7 +3742,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>20.395</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3753,7 +3753,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>314.213</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>237.119</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3775,7 +3775,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>127.402</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3786,7 +3786,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>88.72799999999999</v>
+        <v>4152.272</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3797,7 +3797,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>803.855</v>
+        <v>1569.145</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3808,7 +3808,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>890.3149999999999</v>
+        <v>305.107</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3819,7 +3819,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>3049.788</v>
+        <v>3273.882000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3830,7 +3830,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>1364.883000000001</v>
+        <v>651.8579999999984</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3852,7 +3852,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3863,7 +3863,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>222.992</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3874,7 +3874,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>438.008</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3885,7 +3885,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3907,7 +3907,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>91.94200000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3918,7 +3918,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>85.375</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3929,7 +3929,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>35</v>
+        <v>1998.042</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>69.71899999999999</v>
+        <v>3627.668</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3951,7 +3951,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3962,7 +3962,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>914.4100000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3973,7 +3973,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>8982.42</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3984,7 +3984,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>11475.612</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3995,7 +3995,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>13301.082</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -4006,7 +4006,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>9352</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -4017,7 +4017,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>18422</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -4028,7 +4028,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>928</v>
+        <v>9845</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>8774</v>
+        <v>33303</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -4050,7 +4050,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>15042</v>
+        <v>30228</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -4061,7 +4061,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -4072,7 +4072,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>815.452</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -4083,7 +4083,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1447.485</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -4094,7 +4094,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1907.082</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -4105,7 +4105,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>2645.328</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -4127,7 +4127,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>10.095</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -4138,7 +4138,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>523.697</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>159.5309999999999</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4160,7 +4160,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>35.67700000000002</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -4171,7 +4171,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -4182,7 +4182,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>80</v>
+        <v>787.9100000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4193,7 +4193,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1702.749</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -4204,7 +4204,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>3757.338999999999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -4215,7 +4215,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>3446.487000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -4226,7 +4226,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -4237,7 +4237,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1780.399</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -4248,7 +4248,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>6782.519</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -4259,7 +4259,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>5717.964</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4270,7 +4270,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>5358.160000000002</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -4281,7 +4281,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>4.417</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -4292,7 +4292,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>42.437</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -4303,7 +4303,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>2.203000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>98.07799999999999</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -4325,7 +4325,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>6.864000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -4347,7 +4347,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -4358,7 +4358,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -4369,7 +4369,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -4380,7 +4380,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>689.4000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4391,7 +4391,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>24.743</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>27.508</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4413,7 +4413,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2.832000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4424,7 +4424,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>46.765</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4435,7 +4435,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>179.435</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4446,7 +4446,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>829.03</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4457,7 +4457,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1237.625</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4468,7 +4468,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>679</v>
+        <v>1247.482</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4479,7 +4479,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>451</v>
+        <v>3105.737</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4490,7 +4490,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>2500.001</v>
+        <v>1458.052000000001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4501,7 +4501,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4512,7 +4512,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4523,7 +4523,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4534,7 +4534,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4545,7 +4545,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>-2</v>
+        <v>3023.25</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4556,7 +4556,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4567,7 +4567,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>130.47</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4578,7 +4578,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1528.869</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4589,7 +4589,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>9194.026</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4600,7 +4600,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>4248.394</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4611,7 +4611,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4622,7 +4622,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1605.263</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4633,7 +4633,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>7408.309</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4644,7 +4644,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>4.7</v>
+        <v>2421.366</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4655,7 +4655,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>-4.7</v>
+        <v>2064.011</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4677,7 +4677,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4688,7 +4688,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>306.121</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4699,7 +4699,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>6756.582</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4710,7 +4710,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>-290.1210000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4732,7 +4732,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4809,7 +4809,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>6.028</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -4820,7 +4820,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.1220000000000008</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -4831,7 +4831,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4842,7 +4842,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>16449</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -4853,7 +4853,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>23095</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -4864,7 +4864,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>11</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4875,7 +4875,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>6322</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -4886,7 +4886,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>27.156</v>
+        <v>429.844</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -4897,7 +4897,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>36.906</v>
+        <v>441.094</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -4908,7 +4908,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>355.882</v>
+        <v>2196.118</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -4919,7 +4919,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>294.348</v>
+        <v>12540.652</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -4930,7 +4930,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>-44.29100000000005</v>
+        <v>3569.290999999999</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4941,7 +4941,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -4952,7 +4952,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -4963,7 +4963,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -4974,7 +4974,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -4985,7 +4985,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5020,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>3.229</v>
+        <v>41835.651</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5031,7 +5031,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>17.789</v>
+        <v>-4740.512999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5042,7 +5042,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>67.795</v>
+        <v>1268.279999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5053,7 +5053,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>848.285</v>
+        <v>-1206.551999999996</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5064,7 +5064,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>764.9949999999999</v>
+        <v>3298.479999999996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5075,7 +5075,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5086,7 +5086,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>1.34</v>
+        <v>-172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5097,7 +5097,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>558.66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5108,7 +5108,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>2496.3</v>
+        <v>6.399999999999977</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5119,7 +5119,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>1190.7</v>
+        <v>-16.39999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5130,7 +5130,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5141,7 +5141,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1666.428</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5152,7 +5152,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>14.865</v>
+        <v>733.9130000000005</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5163,7 +5163,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>1368.409</v>
+        <v>623.4449999999997</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5174,7 +5174,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>59.19400000000019</v>
+        <v>-2725.287</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5185,7 +5185,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6452.9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5196,7 +5196,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>583.6000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5207,7 +5207,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>0.12</v>
+        <v>2089.703</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -5218,7 +5218,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>57.14400000000001</v>
+        <v>-2735.566999999999</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -5229,7 +5229,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>25.83599999999999</v>
+        <v>-564.5360000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5240,7 +5240,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.05</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5251,7 +5251,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>0.364</v>
+        <v>621.9099999999999</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5262,7 +5262,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>615.288</v>
+        <v>409.5640000000003</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -5273,7 +5273,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>1648.144</v>
+        <v>-994.6670000000001</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5284,7 +5284,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>47.72800000000007</v>
+        <v>213.222</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5295,7 +5295,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5306,7 +5306,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5317,7 +5317,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>4.027</v>
+        <v>-2.358000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5328,7 +5328,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>598.2349999999999</v>
+        <v>-2.611999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -5339,7 +5339,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>359.0070000000001</v>
+        <v>-0.8130000000000024</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -5350,7 +5350,7 @@
         <v>2000</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -5361,7 +5361,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -5372,7 +5372,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>0.092</v>
+        <v>4.881</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -5383,7 +5383,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>5.856000000000001</v>
+        <v>-0.2809999999999988</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -5394,7 +5394,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>67.55199999999999</v>
+        <v>-7.600000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5405,7 +5405,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>1.576</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -5416,7 +5416,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>1.055</v>
+        <v>-876</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5427,7 +5427,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>2.108</v>
+        <v>-862.0059999999994</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5438,7 +5438,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>6.572</v>
+        <v>3846.704</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5449,7 +5449,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>135.939</v>
+        <v>-4355.991</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5460,7 +5460,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>5.223</v>
+        <v>66363.249</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -5471,7 +5471,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>5.278</v>
+        <v>-14883.372</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -5482,7 +5482,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>609.499</v>
+        <v>11233.74</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5493,7 +5493,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>7133.737</v>
+        <v>-7157.345000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -5504,7 +5504,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>4471.447000000001</v>
+        <v>1357.619000000006</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -5515,7 +5515,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>21732</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -5526,7 +5526,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>1222</v>
+        <v>-2094</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -5537,7 +5537,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>10447</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5548,7 +5548,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>26997</v>
+        <v>-1977</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -5559,7 +5559,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>7666</v>
+        <v>755</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -5570,7 +5570,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5581,7 +5581,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>0.953</v>
+        <v>1499.497</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -5592,7 +5592,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>156.795</v>
+        <v>1864.255999999999</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -5603,7 +5603,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>3741.888</v>
+        <v>-1376.558999999999</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -5614,7 +5614,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>528.8740000000003</v>
+        <v>-2120.579000000001</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -5625,7 +5625,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -5636,7 +5636,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>24.15299999999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -5647,7 +5647,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>0.85</v>
+        <v>-13.76900000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5658,7 +5658,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>140.15</v>
+        <v>45.32700000000003</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -5669,7 +5669,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>1356</v>
+        <v>-14.71100000000001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -5680,7 +5680,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -5691,7 +5691,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>-215.74</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -5702,7 +5702,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>0.476</v>
+        <v>-32.029</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -5713,7 +5713,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>2.932</v>
+        <v>207.259</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -5724,7 +5724,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>17.942</v>
+        <v>80.09399999999994</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -5735,7 +5735,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>18</v>
+        <v>44199.446</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -5746,7 +5746,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>-8132.713000000003</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -5757,7 +5757,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>1874.661</v>
+        <v>15050.031</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -5768,7 +5768,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>21036.531</v>
+        <v>-5579.440000000002</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -5779,7 +5779,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>746.7080000000024</v>
+        <v>781.2090000000026</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -5790,7 +5790,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>2819.157</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -5801,7 +5801,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>506.1320000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -5812,7 +5812,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>195.2169999999996</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -5823,7 +5823,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>0.235</v>
+        <v>-1660.151</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -5834,7 +5834,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>2.902</v>
+        <v>247.1990000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -5845,7 +5845,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -5856,7 +5856,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -5867,7 +5867,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>0.091</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -5878,7 +5878,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>72.90900000000001</v>
+        <v>-191</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -5889,7 +5889,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>18.09999999999999</v>
+        <v>-3.600000000000023</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -5900,7 +5900,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>123.504</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -5911,7 +5911,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>17.698</v>
+        <v>-30.56500000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -5922,7 +5922,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>3.449999999999999</v>
+        <v>14.72200000000001</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -5933,7 +5933,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>82.57300000000001</v>
+        <v>-8.408000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -5944,7 +5944,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>26.66399999999999</v>
+        <v>7.662000000000006</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -5955,7 +5955,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>7.684</v>
+        <v>142.43</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -5966,7 +5966,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>27.742</v>
+        <v>-54.43000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -5977,7 +5977,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>20.446</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -5988,7 +5988,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>1052.647</v>
+        <v>-12.301</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -5999,7 +5999,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>4226.936</v>
+        <v>-18.517</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -6010,7 +6010,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>5.34</v>
+        <v>141818</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -6021,7 +6021,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>0.8900000000000006</v>
+        <v>-6130</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -6032,7 +6032,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>1.869</v>
+        <v>-18949</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -6043,7 +6043,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>5.250999999999999</v>
+        <v>20563</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -6054,7 +6054,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>91.67</v>
+        <v>-11781.933</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -6065,7 +6065,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -6076,7 +6076,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>95.11499999999978</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -6087,7 +6087,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>718.8270000000002</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -6098,7 +6098,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>56.639</v>
+        <v>-1087.74</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -6109,7 +6109,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>654.034</v>
+        <v>126.2139999999999</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6120,7 +6120,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>11323</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -6131,7 +6131,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>-6592.337</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -6142,7 +6142,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>208.33</v>
+        <v>11417.234</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -6153,7 +6153,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>584.8249999999999</v>
+        <v>-7487.391000000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -6164,7 +6164,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>546.097</v>
+        <v>157.2080000000005</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -6175,7 +6175,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>14778</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -6186,7 +6186,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>5428.852999999999</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -6197,7 +6197,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>0.036</v>
+        <v>-323.969000000001</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -6208,7 +6208,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1981.964</v>
+        <v>-3250.806999999997</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -6219,7 +6219,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-204.385</v>
+        <v>-1051.455000000002</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -6230,7 +6230,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -6241,7 +6241,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -6252,7 +6252,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>16.942</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -6263,7 +6263,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>489.058</v>
+        <v>-1389</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -6274,7 +6274,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>83</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -6285,7 +6285,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>3834.721</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -6296,7 +6296,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>0.035</v>
+        <v>-373.7559999999999</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -6307,7 +6307,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>12.826</v>
+        <v>1057.272</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -6318,7 +6318,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>261.371</v>
+        <v>-711.1330000000003</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -6329,7 +6329,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>28.80699999999996</v>
+        <v>672.2919999999999</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -6340,7 +6340,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>14</v>
+        <v>28256</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -6351,7 +6351,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>33.979</v>
+        <v>-9863</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -6362,7 +6362,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>6377.021</v>
+        <v>23911</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -6373,7 +6373,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>1841.217000000001</v>
+        <v>-14164</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -6384,7 +6384,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>1153.782999999999</v>
+        <v>-3494</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -6395,7 +6395,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>1.418</v>
+        <v>78584</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -6406,7 +6406,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0.7089999999999999</v>
+        <v>-5781</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -6417,7 +6417,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>6.473</v>
+        <v>-6405.212</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -6428,7 +6428,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>88.40000000000001</v>
+        <v>8914.694000000003</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -6439,7 +6439,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>582</v>
+        <v>-9941.482000000004</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -6450,7 +6450,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>11</v>
+        <v>36835</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -6461,7 +6461,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>10</v>
+        <v>-5609</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -6472,7 +6472,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>73</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -6483,7 +6483,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>1025</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -6494,7 +6494,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>1059</v>
+        <v>-218</v>
       </c>
     </row>
   </sheetData>
@@ -6584,7 +6584,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>48157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6595,7 +6595,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>-562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6606,7 +6606,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6617,7 +6617,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>-21841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6628,7 +6628,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>17420.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6639,7 +6639,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>18178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6650,7 +6650,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6661,7 +6661,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>-3404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6672,7 +6672,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6683,7 +6683,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>1172.288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6749,7 +6749,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>13590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6760,7 +6760,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>11138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6771,7 +6771,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>3270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6782,7 +6782,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>-1157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6793,7 +6793,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>3405.208999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6914,7 +6914,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>22479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -6925,7 +6925,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -6936,7 +6936,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>-471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -6947,7 +6947,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -6958,7 +6958,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -6969,7 +6969,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>415162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6980,7 +6980,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>36367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6991,7 +6991,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>-23008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7002,7 +7002,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>8906.808000000019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7013,7 +7013,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>-38416.22100000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7024,7 +7024,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>169606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7035,7 +7035,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>-6551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7046,7 +7046,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>-22499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7057,7 +7057,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>-48770</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7068,7 +7068,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>-16715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7134,7 +7134,7 @@
         <v>2000</v>
       </c>
       <c r="C57">
-        <v>14180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7145,7 +7145,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>-346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7156,7 +7156,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>1927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7167,7 +7167,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7178,7 +7178,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7354,7 +7354,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>8419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7365,7 +7365,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>1918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7376,7 +7376,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>-10337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7464,7 +7464,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>3926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -7475,7 +7475,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -7486,7 +7486,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -7497,7 +7497,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>109.0410000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -7508,7 +7508,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>-168.2930000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -7684,7 +7684,7 @@
         <v>2000</v>
       </c>
       <c r="C107">
-        <v>5456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -7695,7 +7695,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -7706,7 +7706,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>6068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -7717,7 +7717,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -7728,7 +7728,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-359.8330000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -7739,7 +7739,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>16494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -7750,7 +7750,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>1233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -7761,7 +7761,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>-3153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -7772,7 +7772,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -7783,7 +7783,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -7794,7 +7794,7 @@
         <v>2000</v>
       </c>
       <c r="C117">
-        <v>4761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -7805,7 +7805,7 @@
         <v>2005</v>
       </c>
       <c r="C118">
-        <v>1123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -7816,7 +7816,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>-227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -7827,7 +7827,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -7838,7 +7838,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>173.2569999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -7849,7 +7849,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>62206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -7860,7 +7860,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>-4667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -7871,7 +7871,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>4451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -7882,7 +7882,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>-4794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -7893,7 +7893,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>1153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -7904,7 +7904,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>57316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -7915,7 +7915,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>15061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -7926,7 +7926,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>-14549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -7937,7 +7937,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>-1480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -7948,7 +7948,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>9782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -7959,7 +7959,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>26446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -7970,7 +7970,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>-3105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -7981,7 +7981,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>2998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -7992,7 +7992,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>-3250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -8003,7 +8003,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>3329</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8038,7 +8038,7 @@
         <v>2000</v>
       </c>
       <c r="C2">
-        <v>66.754</v>
+        <v>1382.701</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8049,7 +8049,7 @@
         <v>2005</v>
       </c>
       <c r="C3">
-        <v>1264.523</v>
+        <v>960.1410000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8060,7 +8060,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>732.6370000000002</v>
+        <v>852.163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8071,7 +8071,7 @@
         <v>2015</v>
       </c>
       <c r="C5">
-        <v>2776.407</v>
+        <v>239.6669999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8082,7 +8082,7 @@
         <v>2019</v>
       </c>
       <c r="C6">
-        <v>2637.042</v>
+        <v>-56.62199999999984</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8093,7 +8093,7 @@
         <v>2000</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8104,7 +8104,7 @@
         <v>2005</v>
       </c>
       <c r="C8">
-        <v>211</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8115,7 +8115,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>875</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8126,7 +8126,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>1859</v>
+        <v>-256.9000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8137,7 +8137,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>2119.6</v>
+        <v>-219.8999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8148,7 +8148,7 @@
         <v>2000</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8159,7 +8159,7 @@
         <v>2005</v>
       </c>
       <c r="C13">
-        <v>4.587</v>
+        <v>112.468</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8170,7 +8170,7 @@
         <v>2010</v>
       </c>
       <c r="C14">
-        <v>676.782</v>
+        <v>228.7069999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8181,7 +8181,7 @@
         <v>2015</v>
       </c>
       <c r="C15">
-        <v>770.1419999999999</v>
+        <v>-169.419</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8192,7 +8192,7 @@
         <v>2019</v>
       </c>
       <c r="C16">
-        <v>-134.5229999999999</v>
+        <v>-38.50999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8203,7 +8203,7 @@
         <v>2000</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8214,7 +8214,7 @@
         <v>2005</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>85.7</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -8225,7 +8225,7 @@
         <v>2010</v>
       </c>
       <c r="C19">
-        <v>129.1</v>
+        <v>2.099999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -8236,7 +8236,7 @@
         <v>2015</v>
       </c>
       <c r="C20">
-        <v>657.1949999999999</v>
+        <v>58.90000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8247,7 +8247,7 @@
         <v>2019</v>
       </c>
       <c r="C21">
-        <v>671.005</v>
+        <v>-58.5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8258,7 +8258,7 @@
         <v>2000</v>
       </c>
       <c r="C22">
-        <v>0.885</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -8269,7 +8269,7 @@
         <v>2005</v>
       </c>
       <c r="C23">
-        <v>20.395</v>
+        <v>92.09199999999998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -8280,7 +8280,7 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>314.213</v>
+        <v>-55.98699999999997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -8291,7 +8291,7 @@
         <v>2015</v>
       </c>
       <c r="C25">
-        <v>237.119</v>
+        <v>684.857</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -8302,7 +8302,7 @@
         <v>2019</v>
       </c>
       <c r="C26">
-        <v>127.402</v>
+        <v>-109.3050000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8313,7 +8313,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>4152.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -8324,7 +8324,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>1569.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -8335,7 +8335,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>305.107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -8346,7 +8346,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>3273.882000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -8357,7 +8357,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>651.8579999999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8379,7 +8379,7 @@
         <v>2005</v>
       </c>
       <c r="C33">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -8390,7 +8390,7 @@
         <v>2010</v>
       </c>
       <c r="C34">
-        <v>222.992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -8401,7 +8401,7 @@
         <v>2015</v>
       </c>
       <c r="C35">
-        <v>438.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -8412,7 +8412,7 @@
         <v>2019</v>
       </c>
       <c r="C36">
-        <v>-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -8423,7 +8423,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -8434,7 +8434,7 @@
         <v>2005</v>
       </c>
       <c r="C38">
-        <v>91.94200000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -8445,7 +8445,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>85.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -8456,7 +8456,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>1998.042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -8467,7 +8467,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>3627.668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -8478,7 +8478,7 @@
         <v>2000</v>
       </c>
       <c r="C42">
-        <v>48.16</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -8489,7 +8489,7 @@
         <v>2005</v>
       </c>
       <c r="C43">
-        <v>914.4100000000001</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -8500,7 +8500,7 @@
         <v>2010</v>
       </c>
       <c r="C44">
-        <v>8982.42</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -8511,7 +8511,7 @@
         <v>2015</v>
       </c>
       <c r="C45">
-        <v>11475.612</v>
+        <v>145.0910000000003</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -8522,7 +8522,7 @@
         <v>2019</v>
       </c>
       <c r="C46">
-        <v>13301.082</v>
+        <v>-298.3240000000005</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -8533,7 +8533,7 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>9352</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -8544,7 +8544,7 @@
         <v>2005</v>
       </c>
       <c r="C48">
-        <v>18422</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -8555,7 +8555,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>9845</v>
+        <v>-379</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -8566,7 +8566,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>33303</v>
+        <v>-479</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -8577,7 +8577,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>30228</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -8588,7 +8588,7 @@
         <v>2000</v>
       </c>
       <c r="C52">
-        <v>451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -8599,7 +8599,7 @@
         <v>2005</v>
       </c>
       <c r="C53">
-        <v>815.452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -8610,7 +8610,7 @@
         <v>2010</v>
       </c>
       <c r="C54">
-        <v>1447.485</v>
+        <v>23.479</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -8621,7 +8621,7 @@
         <v>2015</v>
       </c>
       <c r="C55">
-        <v>1907.082</v>
+        <v>28.647</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -8632,7 +8632,7 @@
         <v>2019</v>
       </c>
       <c r="C56">
-        <v>2645.328</v>
+        <v>21.154</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -8654,7 +8654,7 @@
         <v>2005</v>
       </c>
       <c r="C58">
-        <v>10.095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -8665,7 +8665,7 @@
         <v>2010</v>
       </c>
       <c r="C59">
-        <v>523.697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -8676,7 +8676,7 @@
         <v>2015</v>
       </c>
       <c r="C60">
-        <v>159.5309999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -8687,7 +8687,7 @@
         <v>2019</v>
       </c>
       <c r="C61">
-        <v>35.67700000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -8698,7 +8698,7 @@
         <v>2000</v>
       </c>
       <c r="C62">
-        <v>244</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -8709,7 +8709,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>787.9100000000001</v>
+        <v>39.91000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -8720,7 +8720,7 @@
         <v>2010</v>
       </c>
       <c r="C64">
-        <v>1702.749</v>
+        <v>-167.048</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8731,7 +8731,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>3757.338999999999</v>
+        <v>111.246</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -8742,7 +8742,7 @@
         <v>2019</v>
       </c>
       <c r="C66">
-        <v>3446.487000000001</v>
+        <v>-42.78900000000002</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -8753,7 +8753,7 @@
         <v>2000</v>
       </c>
       <c r="C67">
-        <v>563</v>
+        <v>6700.189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -8764,7 +8764,7 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1780.399</v>
+        <v>159.9780000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -8775,7 +8775,7 @@
         <v>2010</v>
       </c>
       <c r="C69">
-        <v>6782.519</v>
+        <v>-3570.268</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -8786,7 +8786,7 @@
         <v>2015</v>
       </c>
       <c r="C70">
-        <v>5717.964</v>
+        <v>-1857.755</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -8797,7 +8797,7 @@
         <v>2019</v>
       </c>
       <c r="C71">
-        <v>5358.160000000002</v>
+        <v>402.8389999999999</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -8808,7 +8808,7 @@
         <v>2000</v>
       </c>
       <c r="C72">
-        <v>4.417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -8819,7 +8819,7 @@
         <v>2005</v>
       </c>
       <c r="C73">
-        <v>42.437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -8830,7 +8830,7 @@
         <v>2010</v>
       </c>
       <c r="C74">
-        <v>2.203000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8841,7 +8841,7 @@
         <v>2015</v>
       </c>
       <c r="C75">
-        <v>98.07799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -8852,7 +8852,7 @@
         <v>2019</v>
       </c>
       <c r="C76">
-        <v>6.864000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -8863,7 +8863,7 @@
         <v>2000</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -8874,7 +8874,7 @@
         <v>2005</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -8885,7 +8885,7 @@
         <v>2010</v>
       </c>
       <c r="C79">
-        <v>222</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -8896,7 +8896,7 @@
         <v>2015</v>
       </c>
       <c r="C80">
-        <v>586</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -8907,7 +8907,7 @@
         <v>2019</v>
       </c>
       <c r="C81">
-        <v>689.4000000000001</v>
+        <v>-72.70000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -8918,7 +8918,7 @@
         <v>2000</v>
       </c>
       <c r="C82">
-        <v>24.743</v>
+        <v>747.126</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -8929,7 +8929,7 @@
         <v>2005</v>
       </c>
       <c r="C83">
-        <v>27.508</v>
+        <v>37.36000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -8940,7 +8940,7 @@
         <v>2010</v>
       </c>
       <c r="C84">
-        <v>2.832000000000001</v>
+        <v>575.842</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -8951,7 +8951,7 @@
         <v>2015</v>
       </c>
       <c r="C85">
-        <v>46.765</v>
+        <v>71.04199999999992</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -8962,7 +8962,7 @@
         <v>2019</v>
       </c>
       <c r="C86">
-        <v>179.435</v>
+        <v>-588.9939999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -8973,7 +8973,7 @@
         <v>2000</v>
       </c>
       <c r="C87">
-        <v>829.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -8984,7 +8984,7 @@
         <v>2005</v>
       </c>
       <c r="C88">
-        <v>1237.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -8995,7 +8995,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>1247.482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -9006,7 +9006,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>3105.737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -9017,7 +9017,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>1458.052000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -9028,7 +9028,7 @@
         <v>2000</v>
       </c>
       <c r="C92">
-        <v>31</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9039,7 +9039,7 @@
         <v>2005</v>
       </c>
       <c r="C93">
-        <v>468</v>
+        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -9050,7 +9050,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>375</v>
+        <v>-351</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9061,7 +9061,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>1634</v>
+        <v>735</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9072,7 +9072,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>3023.25</v>
+        <v>-264</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -9083,7 +9083,7 @@
         <v>2000</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9094,7 +9094,7 @@
         <v>2005</v>
       </c>
       <c r="C98">
-        <v>130.47</v>
+        <v>-433.23</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9105,7 +9105,7 @@
         <v>2010</v>
       </c>
       <c r="C99">
-        <v>1528.869</v>
+        <v>-1008.573</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9116,7 +9116,7 @@
         <v>2015</v>
       </c>
       <c r="C100">
-        <v>9194.026</v>
+        <v>34.79700000000003</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9127,7 +9127,7 @@
         <v>2019</v>
       </c>
       <c r="C101">
-        <v>4248.394</v>
+        <v>103.472</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9138,7 +9138,7 @@
         <v>2000</v>
       </c>
       <c r="C102">
-        <v>168</v>
+        <v>392</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9149,7 +9149,7 @@
         <v>2005</v>
       </c>
       <c r="C103">
-        <v>1605.263</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9160,7 +9160,7 @@
         <v>2010</v>
       </c>
       <c r="C104">
-        <v>7408.309</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -9171,7 +9171,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>2421.366</v>
+        <v>740</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9182,7 +9182,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>2064.011</v>
+        <v>285.8009999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9204,7 +9204,7 @@
         <v>2005</v>
       </c>
       <c r="C108">
-        <v>0.227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -9215,7 +9215,7 @@
         <v>2010</v>
       </c>
       <c r="C109">
-        <v>306.121</v>
+        <v>360.098</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9226,7 +9226,7 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>6756.582</v>
+        <v>14.37799999999999</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9237,7 +9237,7 @@
         <v>2019</v>
       </c>
       <c r="C111">
-        <v>-290.1210000000001</v>
+        <v>50.60300000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -9248,7 +9248,7 @@
         <v>2000</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -9259,7 +9259,7 @@
         <v>2005</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>-257</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9270,7 +9270,7 @@
         <v>2010</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -9281,7 +9281,7 @@
         <v>2015</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>-123</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -9292,7 +9292,7 @@
         <v>2019</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -9325,7 +9325,7 @@
         <v>2010</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>184.718</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -9336,7 +9336,7 @@
         <v>2015</v>
       </c>
       <c r="C120">
-        <v>6.028</v>
+        <v>98.35300000000004</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -9347,7 +9347,7 @@
         <v>2019</v>
       </c>
       <c r="C121">
-        <v>0.1220000000000008</v>
+        <v>-79.92800000000003</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -9358,7 +9358,7 @@
         <v>2000</v>
       </c>
       <c r="C122">
-        <v>4727</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -9369,7 +9369,7 @@
         <v>2005</v>
       </c>
       <c r="C123">
-        <v>16449</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -9380,7 +9380,7 @@
         <v>2010</v>
       </c>
       <c r="C124">
-        <v>23095</v>
+        <v>-1425</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -9391,7 +9391,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>5043</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -9402,7 +9402,7 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>6322</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -9413,7 +9413,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>429.844</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -9424,7 +9424,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>441.094</v>
+        <v>36.129</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9435,7 +9435,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>2196.118</v>
+        <v>31.871</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9446,7 +9446,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>12540.652</v>
+        <v>24.265</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9457,7 +9457,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>3569.290999999999</v>
+        <v>-105.265</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9468,7 +9468,7 @@
         <v>2000</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9479,7 +9479,7 @@
         <v>2005</v>
       </c>
       <c r="C133">
-        <v>5</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9490,7 +9490,7 @@
         <v>2010</v>
       </c>
       <c r="C134">
-        <v>29</v>
+        <v>-97</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9501,7 +9501,7 @@
         <v>2015</v>
       </c>
       <c r="C135">
-        <v>73</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9512,7 +9512,7 @@
         <v>2019</v>
       </c>
       <c r="C136">
-        <v>36</v>
+        <v>1299</v>
       </c>
     </row>
   </sheetData>
@@ -9624,7 +9624,7 @@
         <v>2010</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9635,7 +9635,7 @@
         <v>2015</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9646,7 +9646,7 @@
         <v>2019</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9822,7 +9822,7 @@
         <v>2000</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>88.72799999999999</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -9833,7 +9833,7 @@
         <v>2005</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>803.855</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9844,7 +9844,7 @@
         <v>2010</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>890.3149999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -9855,7 +9855,7 @@
         <v>2015</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>3049.788</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9866,7 +9866,7 @@
         <v>2019</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1364.883000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -9954,7 +9954,7 @@
         <v>2010</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -9965,7 +9965,7 @@
         <v>2015</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -9976,7 +9976,7 @@
         <v>2019</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>69.71899999999999</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -10064,7 +10064,7 @@
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>928</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -10075,7 +10075,7 @@
         <v>2015</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>8774</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -10086,7 +10086,7 @@
         <v>2019</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>15042</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -10218,7 +10218,7 @@
         <v>2005</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -10240,7 +10240,7 @@
         <v>2015</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -10504,7 +10504,7 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>679</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -10515,7 +10515,7 @@
         <v>2015</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -10526,7 +10526,7 @@
         <v>2019</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>2500.001</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -10559,7 +10559,7 @@
         <v>2010</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -10570,7 +10570,7 @@
         <v>2015</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -10581,7 +10581,7 @@
         <v>2019</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -10680,7 +10680,7 @@
         <v>2015</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -10691,7 +10691,7 @@
         <v>2019</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -10900,7 +10900,7 @@
         <v>2015</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -10922,7 +10922,7 @@
         <v>2000</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>27.156</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -10933,7 +10933,7 @@
         <v>2005</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>36.906</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -10944,7 +10944,7 @@
         <v>2010</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>355.882</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -10955,7 +10955,7 @@
         <v>2015</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>294.348</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -10966,7 +10966,7 @@
         <v>2019</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>-44.29100000000005</v>
       </c>
     </row>
     <row r="132" spans="1:3">
